--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -1,40 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +56,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -343,36 +443,702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CLOSE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>VOL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>9:25 CLOSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ADANI</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2583.8</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2529.35</v>
+      </c>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n">
+        <v>785.6</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>2532.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AURO</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>860.5</v>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v>873.15</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>874.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BN</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44392.4</v>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n">
+        <v>44124.4</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>44531.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CANBK</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>340.55</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>331.2</v>
+      </c>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n">
+        <v>326.6</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>332.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DLF</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>494.5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>482.35</v>
+      </c>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n">
+        <v>469.5</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>493.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>HIND</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>463.35</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>458.15</v>
+      </c>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n">
+        <v>451.7</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ICICI</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>954.7</v>
+      </c>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n">
+        <v>957.65</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>960.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>JIND</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>665.95</v>
+      </c>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n">
+        <v>665.95</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>668.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>19552.8</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>19488.6</v>
+      </c>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n">
+        <v>19399.85</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>19532.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>REL</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2563.45</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>2518</v>
+      </c>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n">
+        <v>2562.55</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SBIN</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>574.1</v>
+      </c>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n">
+        <v>561.85</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>575.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>TCON</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>848.65</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>838.1</v>
+      </c>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n">
+        <v>837.55</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TM</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>627.1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>613.55</v>
+      </c>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n">
+        <v>603.95</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>623.85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>122.05</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n">
+        <v>117.95</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>3478.5</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>3425</v>
+      </c>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n">
+        <v>3431.7</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>3459.35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>TITAN</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>3073</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>3000.6</v>
+      </c>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n">
+        <v>3012</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>3009.05</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CLOSE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>VOL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>9:25 CLOSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ADANI</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AURO</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BN</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CANBK</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DLF</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>HIND</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ICICI</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>JIND</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>REL</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SBIN</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>TCON</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TM</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>TITAN</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -451,7 +451,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -500,20 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2583.8</v>
+        <v>814.1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2529.35</v>
-      </c>
-      <c r="D2" s="1" t="n"/>
+        <v>797.75</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>785.6</v>
+      </c>
       <c r="E2" s="1" t="n">
-        <v>785.6</v>
+        <v>805.65</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>148</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>2532.85</v>
+        <v>800.75</v>
       </c>
     </row>
     <row r="3">
@@ -528,9 +530,11 @@
       <c r="C3" s="2" t="n">
         <v>860.5</v>
       </c>
-      <c r="D3" s="1" t="n"/>
+      <c r="D3" s="1" t="n">
+        <v>873.15</v>
+      </c>
       <c r="E3" s="1" t="n">
-        <v>873.15</v>
+        <v>867.85</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>71</v>
@@ -551,9 +555,11 @@
       <c r="C4" s="2" t="n">
         <v>44392.4</v>
       </c>
-      <c r="D4" s="1" t="n"/>
+      <c r="D4" s="1" t="n">
+        <v>44124.4</v>
+      </c>
       <c r="E4" s="1" t="n">
-        <v>44124.4</v>
+        <v>44464.35</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>14</v>
@@ -574,9 +580,11 @@
       <c r="C5" s="2" t="n">
         <v>331.2</v>
       </c>
-      <c r="D5" s="1" t="n"/>
+      <c r="D5" s="1" t="n">
+        <v>326.6</v>
+      </c>
       <c r="E5" s="1" t="n">
-        <v>326.6</v>
+        <v>333.9</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>123</v>
@@ -597,9 +605,11 @@
       <c r="C6" s="2" t="n">
         <v>482.35</v>
       </c>
-      <c r="D6" s="1" t="n"/>
+      <c r="D6" s="1" t="n">
+        <v>469.5</v>
+      </c>
       <c r="E6" s="1" t="n">
-        <v>469.5</v>
+        <v>484.35</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>72</v>
@@ -620,9 +630,11 @@
       <c r="C7" s="2" t="n">
         <v>458.15</v>
       </c>
-      <c r="D7" s="1" t="n"/>
+      <c r="D7" s="1" t="n">
+        <v>451.7</v>
+      </c>
       <c r="E7" s="1" t="n">
-        <v>451.7</v>
+        <v>460.6</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>48</v>
@@ -643,9 +655,11 @@
       <c r="C8" s="2" t="n">
         <v>954.7</v>
       </c>
-      <c r="D8" s="1" t="n"/>
+      <c r="D8" s="1" t="n">
+        <v>957.65</v>
+      </c>
       <c r="E8" s="1" t="n">
-        <v>957.65</v>
+        <v>958</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>54</v>
@@ -666,9 +680,11 @@
       <c r="C9" s="2" t="n">
         <v>665.95</v>
       </c>
-      <c r="D9" s="1" t="n"/>
+      <c r="D9" s="1" t="n">
+        <v>665.95</v>
+      </c>
       <c r="E9" s="1" t="n">
-        <v>665.95</v>
+        <v>699.1</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>95</v>
@@ -689,9 +705,11 @@
       <c r="C10" s="2" t="n">
         <v>19488.6</v>
       </c>
-      <c r="D10" s="1" t="n"/>
+      <c r="D10" s="1" t="n">
+        <v>19399.85</v>
+      </c>
       <c r="E10" s="1" t="n">
-        <v>19399.85</v>
+        <v>19504.35</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>31</v>
@@ -712,9 +730,11 @@
       <c r="C11" s="2" t="n">
         <v>2518</v>
       </c>
-      <c r="D11" s="1" t="n"/>
+      <c r="D11" s="1" t="n">
+        <v>2562.55</v>
+      </c>
       <c r="E11" s="1" t="n">
-        <v>2562.55</v>
+        <v>2551.45</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>54</v>
@@ -735,9 +755,11 @@
       <c r="C12" s="2" t="n">
         <v>574.1</v>
       </c>
-      <c r="D12" s="1" t="n"/>
+      <c r="D12" s="1" t="n">
+        <v>561.85</v>
+      </c>
       <c r="E12" s="1" t="n">
-        <v>561.85</v>
+        <v>576.75</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>204</v>
@@ -758,9 +780,11 @@
       <c r="C13" s="2" t="n">
         <v>838.1</v>
       </c>
-      <c r="D13" s="1" t="n"/>
+      <c r="D13" s="1" t="n">
+        <v>837.55</v>
+      </c>
       <c r="E13" s="1" t="n">
-        <v>837.55</v>
+        <v>839.3</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>8</v>
@@ -781,9 +805,11 @@
       <c r="C14" s="2" t="n">
         <v>613.55</v>
       </c>
-      <c r="D14" s="1" t="n"/>
+      <c r="D14" s="1" t="n">
+        <v>603.95</v>
+      </c>
       <c r="E14" s="1" t="n">
-        <v>603.95</v>
+        <v>614.5</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>131</v>
@@ -804,9 +830,11 @@
       <c r="C15" s="2" t="n">
         <v>119.4</v>
       </c>
-      <c r="D15" s="1" t="n"/>
+      <c r="D15" s="1" t="n">
+        <v>117.95</v>
+      </c>
       <c r="E15" s="1" t="n">
-        <v>117.95</v>
+        <v>120.95</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>298</v>
@@ -827,9 +855,11 @@
       <c r="C16" s="2" t="n">
         <v>3425</v>
       </c>
-      <c r="D16" s="1" t="n"/>
+      <c r="D16" s="1" t="n">
+        <v>3431.7</v>
+      </c>
       <c r="E16" s="1" t="n">
-        <v>3431.7</v>
+        <v>3457.75</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>8</v>
@@ -850,9 +880,11 @@
       <c r="C17" s="2" t="n">
         <v>3000.6</v>
       </c>
-      <c r="D17" s="1" t="n"/>
+      <c r="D17" s="1" t="n">
+        <v>3012</v>
+      </c>
       <c r="E17" s="1" t="n">
-        <v>3012</v>
+        <v>3026.9</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>5</v>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>814.1</v>
+        <v>797.6</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>797.75</v>
+        <v>773.6</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>785.6</v>
+        <v>787</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>805.65</v>
+        <v>790.35</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>800.75</v>
+        <v>786.7</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>878</v>
+        <v>889.6</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>860.5</v>
+        <v>856.15</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>873.15</v>
+        <v>876</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>867.85</v>
+        <v>875.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>874.35</v>
+        <v>860.7</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44720</v>
+        <v>44347.55</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44392.4</v>
+        <v>43982.4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44124.4</v>
+        <v>44219.7</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44464.35</v>
+        <v>44234.05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44531.9</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>340.55</v>
+        <v>332.7</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>331.2</v>
+        <v>323.65</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>326.6</v>
+        <v>329.55</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>333.9</v>
+        <v>330.8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>332.1</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>494.5</v>
+        <v>474.8</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>482.35</v>
+        <v>464.8</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>469.5</v>
+        <v>472</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>484.35</v>
+        <v>472.95</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>493.5</v>
+        <v>471.4</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>463.35</v>
+        <v>454.6</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>458.15</v>
+        <v>448.6</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>451.7</v>
+        <v>451.1</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>460.6</v>
+        <v>451.6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>463</v>
+        <v>449.85</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>963.9</v>
+        <v>964.15</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>954.7</v>
+        <v>951.45</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>957.65</v>
+        <v>960.9</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>958</v>
+        <v>961.2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>960.4</v>
+        <v>953.2</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>702</v>
+        <v>680.45</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>665.95</v>
+        <v>657.3</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>665.95</v>
+        <v>662</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>699.1</v>
+        <v>662.4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>668.15</v>
+        <v>677.7</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19552.8</v>
+        <v>19506.25</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19488.6</v>
+        <v>19316.85</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19399.85</v>
+        <v>19471.2</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19504.35</v>
+        <v>19478.35</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19532.05</v>
+        <v>19334.15</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2563.45</v>
+        <v>2581.75</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2518</v>
+        <v>2527.8</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2562.55</v>
+        <v>2576</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2551.45</v>
+        <v>2577.45</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2532</v>
+        <v>2529.7</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>582</v>
+        <v>567.1</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>574.1</v>
+        <v>560.75</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>561.85</v>
+        <v>563</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>576.75</v>
+        <v>563.2</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>575.25</v>
+        <v>565.9</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>848.65</v>
+        <v>847.1</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>838.1</v>
+        <v>832.6</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>837.55</v>
+        <v>846.5</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>839.3</v>
+        <v>845.95</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>847</v>
+        <v>832.85</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>627.1</v>
+        <v>610.15</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>613.55</v>
+        <v>596.25</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>603.95</v>
+        <v>607.95</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>614.5</v>
+        <v>608.25</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>623.85</v>
+        <v>598.55</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>122.05</v>
+        <v>119.15</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>119.4</v>
+        <v>117.5</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>117.95</v>
+        <v>118.35</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>120.95</v>
+        <v>118.45</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>119.7</v>
+        <v>118.95</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3478.5</v>
+        <v>3461.45</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3431.7</v>
+        <v>3458.4</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3457.75</v>
+        <v>3457.45</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3459.35</v>
+        <v>3438.25</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3073</v>
+        <v>3026.75</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3000.6</v>
+        <v>2996.05</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3012</v>
+        <v>3023</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3026.9</v>
+        <v>3021.35</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3009.05</v>
+        <v>3008.05</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>784.5</v>
+        <v>851.2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>778.3</v>
+        <v>835.85</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>779.65</v>
+        <v>836.35</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>782.6</v>
+        <v>815.25</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>888.3</v>
+        <v>879.8</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>859.2</v>
+        <v>852.5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>878.75</v>
+        <v>857.7</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>877.2</v>
+        <v>859.55</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>865.75</v>
+        <v>873.65</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44147.7</v>
+        <v>44071.15</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43828.45</v>
+        <v>43899.55</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44038</v>
+        <v>43932</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44074.4</v>
+        <v>43964.7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>43891.05</v>
+        <v>44002.4</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>331.5</v>
+        <v>333.8</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>325.95</v>
+        <v>327.65</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>328.55</v>
+        <v>329.3</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>328.75</v>
+        <v>329.25</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>327.45</v>
+        <v>332.45</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>480.45</v>
+        <v>478.55</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>478.95</v>
+        <v>476.5</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>478.75</v>
+        <v>475.8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>471.45</v>
+        <v>477.65</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>447</v>
+        <v>446.05</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>440.05</v>
+        <v>439.05</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>445.3</v>
+        <v>439.5</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>445.7</v>
+        <v>440.25</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>445.25</v>
+        <v>444.9</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>961</v>
+        <v>956.6</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>951.45</v>
+        <v>950.75</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>957.4</v>
+        <v>952.2</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>957.8</v>
+        <v>953.05</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>952.4</v>
+        <v>954.1</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>657.9</v>
+        <v>646.65</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>641.2</v>
+        <v>638.5</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>647</v>
+        <v>641.6</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>647.2</v>
+        <v>642.35</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>657.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19505.4</v>
+        <v>19380</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19372.1</v>
+        <v>19275</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19466</v>
+        <v>19316</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19484.55</v>
+        <v>19331.5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19391.8</v>
+        <v>19324.05</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2584.8</v>
+        <v>2573.9</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2560</v>
+        <v>2507.7</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2570</v>
+        <v>2551</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2573.6</v>
+        <v>2555.45</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2565</v>
+        <v>2528.05</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>567.25</v>
+        <v>575.65</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>562</v>
+        <v>569.95</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>566.2</v>
+        <v>572.5</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>566.1</v>
+        <v>573.4</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>562.9</v>
+        <v>572.2</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>844</v>
+        <v>849.25</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>838.15</v>
+        <v>836.6</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>841.85</v>
+        <v>841.95</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>842.85</v>
+        <v>843.9</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>841.2</v>
+        <v>843.65</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>623.8</v>
+        <v>620.9</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>600.5</v>
+        <v>613.05</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>620.25</v>
+        <v>615.7</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>621.1</v>
+        <v>616.15</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>601.9</v>
+        <v>615.8</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>117.7</v>
+        <v>116.4</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>115.55</v>
+        <v>114.8</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>116.2</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>116.2</v>
+        <v>115.75</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>117.3</v>
+        <v>116.15</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3473.05</v>
+        <v>3401</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3447.75</v>
+        <v>3362</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3462</v>
+        <v>3369.95</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3462.8</v>
+        <v>3369.85</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3463.35</v>
+        <v>3399.9</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3026.15</v>
+        <v>3075</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2989.75</v>
+        <v>3037.75</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3018.15</v>
+        <v>3055</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3021</v>
+        <v>3057</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3001.65</v>
+        <v>3074.75</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>851.2</v>
+        <v>867.35</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>806</v>
+        <v>855.05</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>835.85</v>
+        <v>859.1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>836.35</v>
+        <v>856.3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>815.25</v>
+        <v>863.6</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>879.8</v>
+        <v>849.15</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>852.5</v>
+        <v>830.2</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>857.7</v>
+        <v>841.5</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>859.55</v>
+        <v>842.4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>873.65</v>
+        <v>842.7</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44071.15</v>
+        <v>44188.3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43899.55</v>
+        <v>44050</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>43932</v>
+        <v>44077</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>43964.7</v>
+        <v>44088.05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44002.4</v>
+        <v>44128.5</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>333.8</v>
+        <v>330.2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>327.65</v>
+        <v>326.65</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>329.3</v>
+        <v>327.25</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>329.25</v>
+        <v>326.95</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>332.45</v>
+        <v>328.7</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>478.55</v>
+        <v>485.7</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>473</v>
+        <v>480.75</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>476.5</v>
+        <v>481.8</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>475.8</v>
+        <v>481.6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>477.65</v>
+        <v>482.4</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>446.05</v>
+        <v>454.3</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>439.05</v>
+        <v>449.8</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>439.5</v>
+        <v>452</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>440.25</v>
+        <v>451.5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>444.9</v>
+        <v>451.95</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>956.6</v>
+        <v>956.9</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>950.75</v>
+        <v>951.35</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>952.2</v>
+        <v>952.7</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>953.05</v>
+        <v>953</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>954.1</v>
+        <v>954.25</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>646.65</v>
+        <v>658.95</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>638.5</v>
+        <v>649.55</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>641.6</v>
+        <v>656.1</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>642.35</v>
+        <v>657.2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19380</v>
+        <v>19430</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19275</v>
+        <v>19365.6</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19316</v>
+        <v>19388.75</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19331.5</v>
+        <v>19386.3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19324.05</v>
+        <v>19407.55</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2573.9</v>
+        <v>2544</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2507.7</v>
+        <v>2513.8</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2551</v>
+        <v>2527.15</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2555.45</v>
+        <v>2524.45</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2528.05</v>
+        <v>2515.5</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>575.65</v>
+        <v>574.45</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>569.95</v>
+        <v>568.35</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>572.5</v>
+        <v>569.5</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>573.4</v>
+        <v>569.4</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>572.2</v>
+        <v>573.15</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>849.25</v>
+        <v>852</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>836.6</v>
+        <v>844.95</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>841.95</v>
+        <v>847.55</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>843.9</v>
+        <v>848.6</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>843.65</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>620.9</v>
+        <v>626.45</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>613.05</v>
+        <v>620.2</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>615.7</v>
+        <v>620.6</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>616.15</v>
+        <v>620.85</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>615.8</v>
+        <v>625.4</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>116.4</v>
+        <v>118.1</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>114.8</v>
+        <v>116.55</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>116</v>
+        <v>117.85</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>115.75</v>
+        <v>117.9</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>116.15</v>
+        <v>117.15</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3401</v>
+        <v>3400.75</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3362</v>
+        <v>3372.1</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3369.95</v>
+        <v>3385.95</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3369.85</v>
+        <v>3383.15</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3399.9</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3075</v>
+        <v>3077.3</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3037.75</v>
+        <v>3040.8</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3055</v>
+        <v>3076.6</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3057</v>
+        <v>3073.45</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3074.75</v>
+        <v>3064.95</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>867.35</v>
+        <v>845.3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>855.05</v>
+        <v>820.7</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>859.1</v>
+        <v>826.9</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>856.3</v>
+        <v>823.7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>863.6</v>
+        <v>832.05</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>849.15</v>
+        <v>847</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>830.2</v>
+        <v>832.15</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>841.5</v>
+        <v>832.75</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>842.4</v>
+        <v>834.3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>842.7</v>
+        <v>843.2</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44188.3</v>
+        <v>45009.95</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44050</v>
+        <v>44525</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44077</v>
+        <v>44525</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44088.05</v>
+        <v>44559.1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44128.5</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>330.2</v>
+        <v>337.85</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>326.65</v>
+        <v>331</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>327.25</v>
+        <v>331.9</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>326.95</v>
+        <v>332.5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>328.7</v>
+        <v>336.65</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>485.7</v>
+        <v>491.25</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>480.75</v>
+        <v>483.55</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>481.8</v>
+        <v>484.65</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>481.6</v>
+        <v>484.1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>482.4</v>
+        <v>485.65</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>454.3</v>
+        <v>464.75</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>449.8</v>
+        <v>454</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>452</v>
+        <v>456.15</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>451.5</v>
+        <v>456.1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>451.95</v>
+        <v>464.5</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>956.9</v>
+        <v>982.1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>951.35</v>
+        <v>968.95</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>952.7</v>
+        <v>969.7</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>953</v>
+        <v>970.55</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>954.25</v>
+        <v>974.2</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>658.95</v>
+        <v>667.35</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>649.55</v>
+        <v>647.65</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>656.1</v>
+        <v>648.15</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>657.2</v>
+        <v>649.6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>656</v>
+        <v>664.25</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19430</v>
+        <v>19575</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19365.6</v>
+        <v>19376</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19388.75</v>
+        <v>19390</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19386.3</v>
+        <v>19395.6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19407.55</v>
+        <v>19543.4</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2544</v>
+        <v>2539.75</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2513.8</v>
+        <v>2473</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2527.15</v>
+        <v>2476</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2524.45</v>
+        <v>2481</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2515.5</v>
+        <v>2531.75</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>574.45</v>
+        <v>581.9</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>568.35</v>
+        <v>575.15</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>569.5</v>
+        <v>577</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>569.4</v>
+        <v>576.7</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>573.15</v>
+        <v>580.1</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>852</v>
+        <v>854.65</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>844.95</v>
+        <v>843.55</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>847.55</v>
+        <v>845.8</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>848.6</v>
+        <v>844.75</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>849</v>
+        <v>848.9</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>626.45</v>
+        <v>618.5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>620.2</v>
+        <v>610.6</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>620.6</v>
+        <v>611.15</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>620.85</v>
+        <v>611.65</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>625.4</v>
+        <v>617.3</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>118.1</v>
+        <v>120.3</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>116.55</v>
+        <v>118.05</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>117.85</v>
+        <v>118.25</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>117.9</v>
+        <v>118.25</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>117.15</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3400.75</v>
+        <v>3415.5</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3372.1</v>
+        <v>3380.95</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3385.95</v>
+        <v>3389.95</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3383.15</v>
+        <v>3386.25</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3400</v>
+        <v>3410.2</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3077.3</v>
+        <v>3098.4</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3040.8</v>
+        <v>3062.2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3076.6</v>
+        <v>3067.95</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3073.45</v>
+        <v>3066.7</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3064.95</v>
+        <v>3089.45</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>845.3</v>
+        <v>828.75</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>820.7</v>
+        <v>806.75</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>826.9</v>
+        <v>821.4</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>823.7</v>
+        <v>821.95</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>832.05</v>
+        <v>807.9</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>847</v>
+        <v>839.9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>832.15</v>
+        <v>828</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>832.75</v>
+        <v>829</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>834.3</v>
+        <v>830.25</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>843.2</v>
+        <v>833.05</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45009.95</v>
+        <v>44626</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44525</v>
+        <v>44443.15</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44525</v>
+        <v>44516.4</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44559.1</v>
+        <v>44500.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44817</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>337.85</v>
+        <v>328.65</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>331</v>
+        <v>325.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>331.9</v>
+        <v>327.2</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>332.5</v>
+        <v>327</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>336.65</v>
+        <v>328.65</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>491.25</v>
+        <v>498.35</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>483.55</v>
+        <v>488.45</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>484.65</v>
+        <v>494.5</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>484.1</v>
+        <v>493.95</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>485.65</v>
+        <v>489.1</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>464.75</v>
+        <v>459.15</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>454</v>
+        <v>448.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>456.15</v>
+        <v>457.35</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>456.1</v>
+        <v>456.55</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>464.5</v>
+        <v>450.1</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>982.1</v>
+        <v>975.2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>968.95</v>
+        <v>967</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>969.7</v>
+        <v>968.1</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>970.55</v>
+        <v>968.45</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>974.2</v>
+        <v>974.15</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>667.35</v>
+        <v>679.9</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>647.65</v>
+        <v>657.75</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>648.15</v>
+        <v>675</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>649.6</v>
+        <v>675.35</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>664.25</v>
+        <v>660.6</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19575</v>
+        <v>19366.95</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19376</v>
+        <v>19306</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19390</v>
+        <v>19345.75</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19395.6</v>
+        <v>19337.1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19543.4</v>
+        <v>19344.9</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2539.75</v>
+        <v>2442</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2473</v>
+        <v>2410.5</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2476</v>
+        <v>2423.15</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2481</v>
+        <v>2422.45</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2531.75</v>
+        <v>2433.05</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>581.9</v>
+        <v>575.8</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>575.15</v>
+        <v>572</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>576.7</v>
+        <v>574.8</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>580.1</v>
+        <v>573.15</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>854.65</v>
+        <v>841.5</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>843.55</v>
+        <v>834.75</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>845.8</v>
+        <v>836.8</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>844.75</v>
+        <v>836.6</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>848.9</v>
+        <v>838.9</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>618.5</v>
+        <v>611.25</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>610.6</v>
+        <v>605.2</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>611.15</v>
+        <v>608.25</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>611.65</v>
+        <v>607.65</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>617.3</v>
+        <v>606.6</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>120.3</v>
+        <v>120.35</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>118.05</v>
+        <v>117.8</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>118.25</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>118.25</v>
+        <v>119.7</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>336</v>
+        <v>950</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>119.9</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3415.5</v>
+        <v>3384.7</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3380.95</v>
+        <v>3362.25</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3389.95</v>
+        <v>3370.15</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3386.25</v>
+        <v>3370.55</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3410.2</v>
+        <v>3379.2</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3098.4</v>
+        <v>3086.45</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3062.2</v>
+        <v>3046.05</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3067.95</v>
+        <v>3075.4</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3066.7</v>
+        <v>3074.7</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3089.45</v>
+        <v>3050.55</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>828.75</v>
+        <v>814</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>806.75</v>
+        <v>788.75</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>821.4</v>
+        <v>805</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>821.95</v>
+        <v>804.85</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>807.9</v>
+        <v>790.5</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>839.9</v>
+        <v>842</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>828</v>
+        <v>825.5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>829</v>
+        <v>828.25</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>830.25</v>
+        <v>828.35</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>833.05</v>
+        <v>837.75</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44626</v>
+        <v>44746.15</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44443.15</v>
+        <v>44061</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44516.4</v>
+        <v>44630</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44500.5</v>
+        <v>44601.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44607</v>
+        <v>44263.1</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>328.65</v>
+        <v>332.6</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>325.5</v>
+        <v>322.15</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>327.2</v>
+        <v>330.8</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>327</v>
+        <v>330.85</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>328.65</v>
+        <v>322.85</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>498.35</v>
+        <v>512.45</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>488.45</v>
+        <v>502.6</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>494.5</v>
+        <v>505.95</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>493.95</v>
+        <v>505.75</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>489.1</v>
+        <v>507.3</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>459.15</v>
+        <v>481.7</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>448.5</v>
+        <v>472.05</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>457.35</v>
+        <v>476.1</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>456.55</v>
+        <v>476.8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>450.1</v>
+        <v>472.7</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>975.2</v>
+        <v>976.75</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>967</v>
+        <v>958.5</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>968.1</v>
+        <v>971.35</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>968.45</v>
+        <v>972.05</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>974.15</v>
+        <v>962.2</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>679.9</v>
+        <v>719</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>657.75</v>
+        <v>694.85</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>675</v>
+        <v>704.9</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>675.35</v>
+        <v>705.8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>660.6</v>
+        <v>696.5</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19366.95</v>
+        <v>19528.95</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19306</v>
+        <v>19380</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19345.75</v>
+        <v>19519.5</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19337.1</v>
+        <v>19512.1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19344.9</v>
+        <v>19390</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2442</v>
+        <v>2440.45</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2410.5</v>
+        <v>2419.05</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2423.15</v>
+        <v>2427</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2422.45</v>
+        <v>2428</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2433.05</v>
+        <v>2424.9</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>575.8</v>
+        <v>573.25</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>572</v>
+        <v>564.9</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>575</v>
+        <v>571.65</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>574.8</v>
+        <v>571.4</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>573.15</v>
+        <v>567.15</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>841.5</v>
+        <v>851.5</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>834.75</v>
+        <v>843</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>836.8</v>
+        <v>846.05</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>836.6</v>
+        <v>849.8</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>838.9</v>
+        <v>843.2</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>611.25</v>
+        <v>619.2</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>605.2</v>
+        <v>607</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>608.25</v>
+        <v>612.9</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>607.65</v>
+        <v>613.95</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>606.6</v>
+        <v>607.3</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>120.35</v>
+        <v>129.5</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>117.8</v>
+        <v>126.3</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>120</v>
+        <v>127.8</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>119.7</v>
+        <v>128</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>950</v>
+        <v>1008</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>118.2</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3384.7</v>
+        <v>3404</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3362.25</v>
+        <v>3385.25</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3370.15</v>
+        <v>3396.1</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3370.55</v>
+        <v>3400.1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3379.2</v>
+        <v>3388.8</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3086.45</v>
+        <v>3138</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3046.05</v>
+        <v>3112.05</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3075.4</v>
+        <v>3129.05</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3074.7</v>
+        <v>3128.1</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3050.55</v>
+        <v>3132.8</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>788.75</v>
+        <v>803.85</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>805</v>
+        <v>808.65</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>804.85</v>
+        <v>810.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>790.5</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>842</v>
+        <v>872.4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>825.5</v>
+        <v>853.5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>828.25</v>
+        <v>869</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>828.35</v>
+        <v>868.65</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>837.75</v>
+        <v>856</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44746.15</v>
+        <v>44759.95</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44061</v>
+        <v>44470.05</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44630</v>
+        <v>44689.3</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44601.5</v>
+        <v>44644.05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44263.1</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>332.6</v>
+        <v>340.25</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>322.15</v>
+        <v>334.1</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>330.8</v>
+        <v>336.15</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>330.85</v>
+        <v>335.9</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>322.85</v>
+        <v>338.75</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>512.45</v>
+        <v>524.9</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>502.6</v>
+        <v>515.7</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>505.95</v>
+        <v>521</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>505.75</v>
+        <v>521.4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>507.3</v>
+        <v>522.75</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>481.7</v>
+        <v>482.05</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>472.05</v>
+        <v>476</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>476.1</v>
+        <v>479.65</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>476.8</v>
+        <v>479.8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>472.7</v>
+        <v>481.1</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>976.75</v>
+        <v>972.05</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>958.5</v>
+        <v>956.85</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>971.35</v>
+        <v>964.5</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>972.05</v>
+        <v>962.05</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>962.2</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>719</v>
+        <v>707.45</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>694.85</v>
+        <v>699</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>704.9</v>
+        <v>706.1</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>705.8</v>
+        <v>706.6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>696.5</v>
+        <v>703.95</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19528.95</v>
+        <v>19673</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19380</v>
+        <v>19556.1</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19519.5</v>
+        <v>19665.2</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19512.1</v>
+        <v>19658.85</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19390</v>
+        <v>19620.05</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
+        <v>2447.9</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>2431</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2438.25</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2439.45</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>2440.45</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>2419.05</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>2427</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>2428</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>2424.9</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>573.25</v>
+        <v>577</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>564.9</v>
+        <v>571.5</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>571.65</v>
+        <v>574.2</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>571.4</v>
+        <v>573.65</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>567.15</v>
+        <v>575.25</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>851.5</v>
+        <v>887.25</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>843</v>
+        <v>850.6</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>846.05</v>
+        <v>886.7</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>849.8</v>
+        <v>882.55</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>843.2</v>
+        <v>851.35</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>619.2</v>
+        <v>614.65</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>607</v>
+        <v>607.9</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>612.9</v>
+        <v>613.65</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>613.95</v>
+        <v>613.5</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>607.3</v>
+        <v>611.7</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>129.5</v>
+        <v>131.5</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>126.3</v>
+        <v>128.65</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>127.8</v>
+        <v>129.95</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1008</v>
+        <v>455</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>126.65</v>
+        <v>131.3</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3404</v>
+        <v>3454.65</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3385.25</v>
+        <v>3414.4</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3396.1</v>
+        <v>3437</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3400.1</v>
+        <v>3440.65</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3388.8</v>
+        <v>3453.1</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3138</v>
+        <v>3185.35</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3112.05</v>
+        <v>3141</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3129.05</v>
+        <v>3181.35</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3128.1</v>
+        <v>3181.25</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3132.8</v>
+        <v>3147.3</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>803.85</v>
+        <v>815.75</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>808.65</v>
+        <v>826.4</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>810.5</v>
+        <v>826.85</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>807</v>
+        <v>818.1</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>872.4</v>
+        <v>866.1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>853.5</v>
+        <v>853</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>869</v>
+        <v>860.7</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>868.65</v>
+        <v>860.65</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>856</v>
+        <v>865.05</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44759.95</v>
+        <v>45563.15</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44470.05</v>
+        <v>44976.45</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44689.3</v>
+        <v>45326.1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44644.05</v>
+        <v>45319.65</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44663</v>
+        <v>45070</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>340.25</v>
+        <v>345.4</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>334.1</v>
+        <v>336.65</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>336.15</v>
+        <v>340.9</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>335.9</v>
+        <v>340.8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>338.75</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>524.9</v>
+        <v>545.7</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>515.7</v>
+        <v>532.65</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>521.4</v>
+        <v>541.05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>522.75</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>482.05</v>
+        <v>479.75</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>476</v>
+        <v>469.6</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>479.65</v>
+        <v>477.25</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>479.8</v>
+        <v>476.9</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>481.1</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>972.05</v>
+        <v>978.4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>956.85</v>
+        <v>964.6</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>964.5</v>
+        <v>973.2</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>962.05</v>
+        <v>972.45</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>970.2</v>
+        <v>966.8</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>707.45</v>
+        <v>706.05</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>699</v>
+        <v>697.2</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>706.1</v>
+        <v>701</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>706.6</v>
+        <v>700.75</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>703.95</v>
+        <v>705.35</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19673</v>
+        <v>19916</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19556.1</v>
+        <v>19772.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19665.2</v>
+        <v>19874</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19658.85</v>
+        <v>19872.45</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19620.05</v>
+        <v>19819.45</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2447.9</v>
+        <v>2467.75</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2431</v>
+        <v>2436.3</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2438.25</v>
+        <v>2463.85</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2439.45</v>
+        <v>2461.4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2440.45</v>
+        <v>2446.25</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>577</v>
+        <v>590.45</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>571.5</v>
+        <v>582.5</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>574.2</v>
+        <v>585.3</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>573.65</v>
+        <v>585.1</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>575.25</v>
+        <v>583.45</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>887.25</v>
+        <v>862.75</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>850.6</v>
+        <v>856</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>886.7</v>
+        <v>857.45</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>882.55</v>
+        <v>856.85</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>851.35</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>614.65</v>
+        <v>632</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>607.9</v>
+        <v>617.45</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>613.65</v>
+        <v>629.8</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>613.5</v>
+        <v>630.3</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>611.7</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>131.5</v>
+        <v>131.35</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>128.65</v>
+        <v>129.4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>129.95</v>
+        <v>129.9</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>130</v>
+        <v>129.75</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>131.3</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3454.65</v>
+        <v>3480.8</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3414.4</v>
+        <v>3452.8</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3437</v>
+        <v>3460.55</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3440.65</v>
+        <v>3458.75</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3453.1</v>
+        <v>3455.85</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3185.35</v>
+        <v>3210</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3141</v>
+        <v>3182.6</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3181.35</v>
+        <v>3201</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3181.25</v>
+        <v>3202.35</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3147.3</v>
+        <v>3188.2</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>832</v>
+        <v>857.2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>815.75</v>
+        <v>844.65</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>826.4</v>
+        <v>848.05</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>826.85</v>
+        <v>848.75</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>818.1</v>
+        <v>846.55</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>866.1</v>
+        <v>908</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>853</v>
+        <v>895.3</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>860.7</v>
+        <v>900.75</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>860.65</v>
+        <v>901.95</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>865.05</v>
+        <v>903.6</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45563.15</v>
+        <v>46375.9</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44976.45</v>
+        <v>46114.55</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45326.1</v>
+        <v>46255</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45319.65</v>
+        <v>46288.05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>45070</v>
+        <v>46175</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>345.4</v>
+        <v>369.4</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>336.65</v>
+        <v>362.4</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>340.9</v>
+        <v>365.15</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>340.8</v>
+        <v>365.55</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>340.9</v>
+        <v>364.65</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>545.7</v>
+        <v>537.75</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>532.65</v>
+        <v>529.1</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>541</v>
+        <v>532.1</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>541.05</v>
+        <v>533.3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>535</v>
+        <v>534.9</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>479.75</v>
+        <v>504.25</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>469.6</v>
+        <v>496.25</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>477.25</v>
+        <v>497.7</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>476.9</v>
+        <v>497.9</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>473</v>
+        <v>503.65</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>978.4</v>
+        <v>1000.75</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>964.6</v>
+        <v>991.5</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>973.2</v>
+        <v>995.2</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>972.45</v>
+        <v>995.65</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>966.8</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>706.05</v>
+        <v>719.4</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>697.2</v>
+        <v>709.35</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>701</v>
+        <v>712.95</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>700.75</v>
+        <v>714.25</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>705.35</v>
+        <v>717.3</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19916</v>
+        <v>20270</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19772.3</v>
+        <v>20191</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19874</v>
+        <v>20240.1</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19872.45</v>
+        <v>20249.6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19819.45</v>
+        <v>20225.1</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2467.75</v>
+        <v>2472.75</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2436.3</v>
+        <v>2459.25</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2463.85</v>
+        <v>2460.9</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2461.4</v>
+        <v>2465.7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2446.25</v>
+        <v>2467.15</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>590.45</v>
+        <v>602.7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>582.5</v>
+        <v>597.1</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>585.3</v>
+        <v>599.25</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>585.1</v>
+        <v>599.65</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>583.45</v>
+        <v>598.75</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>862.75</v>
+        <v>886.3</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>856</v>
+        <v>876.6</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>857.45</v>
+        <v>878.75</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>856.85</v>
+        <v>879.4</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>862</v>
+        <v>885.5</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>632</v>
+        <v>638.5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>617.45</v>
+        <v>629.75</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>629.8</v>
+        <v>636.5</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>630.3</v>
+        <v>636.55</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>618</v>
+        <v>632.7</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>131.35</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>129.4</v>
+        <v>130.35</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>129.9</v>
+        <v>132.85</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>129.75</v>
+        <v>132.55</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>483</v>
+        <v>899</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>131.1</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3480.8</v>
+        <v>3618</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3452.8</v>
+        <v>3582.25</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3460.55</v>
+        <v>3605.15</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3458.75</v>
+        <v>3611.45</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3455.85</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3210</v>
+        <v>3271.6</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3182.6</v>
+        <v>3240</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3201</v>
+        <v>3260.05</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3202.35</v>
+        <v>3260.35</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3188.2</v>
+        <v>3252</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>857.2</v>
+        <v>803.75</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>844.65</v>
+        <v>787.65</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>848.05</v>
+        <v>791.7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>848.75</v>
+        <v>792.55</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>846.55</v>
+        <v>803.55</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>908</v>
+        <v>880.25</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>895.3</v>
+        <v>863.85</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>900.75</v>
+        <v>864.55</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>901.95</v>
+        <v>866.25</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>903.6</v>
+        <v>878.7</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46375.9</v>
+        <v>43919.95</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46114.55</v>
+        <v>43641.25</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>46255</v>
+        <v>43743.05</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>46288.05</v>
+        <v>43738.75</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>46175</v>
+        <v>43726.05</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>369.4</v>
+        <v>374.3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>362.4</v>
+        <v>364.95</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>365.15</v>
+        <v>368.3</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>365.55</v>
+        <v>368.75</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>364.65</v>
+        <v>373.85</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>537.75</v>
+        <v>566.25</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>529.1</v>
+        <v>548.95</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>532.1</v>
+        <v>553.5</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>533.3</v>
+        <v>553.65</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>534.9</v>
+        <v>563.75</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>504.25</v>
+        <v>479.2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>496.25</v>
+        <v>470</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>497.7</v>
+        <v>472</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>497.9</v>
+        <v>471.95</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>503.65</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1000.75</v>
+        <v>941.3</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>991.5</v>
+        <v>931.85</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>995.2</v>
+        <v>932.75</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>995.65</v>
+        <v>933.4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>994</v>
+        <v>933.65</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>719.4</v>
+        <v>675.45</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>709.35</v>
+        <v>660</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>712.95</v>
+        <v>663.05</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>714.25</v>
+        <v>661.85</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>717.3</v>
+        <v>674.9</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>20270</v>
+        <v>19576.4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>20191</v>
+        <v>19508.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>20240.1</v>
+        <v>19523.3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>20249.6</v>
+        <v>19527.85</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>20225.1</v>
+        <v>19568.1</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2472.75</v>
+        <v>2319.6</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2459.25</v>
+        <v>2292</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2460.9</v>
+        <v>2295.05</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2465.7</v>
+        <v>2297.15</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2467.15</v>
+        <v>2314.65</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>602.7</v>
+        <v>571.25</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>597.1</v>
+        <v>562.9</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>599.25</v>
+        <v>563.8</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>599.65</v>
+        <v>564.5</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>598.75</v>
+        <v>570.75</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>886.3</v>
+        <v>899.55</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>876.6</v>
+        <v>888</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>878.75</v>
+        <v>897.6</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>879.4</v>
+        <v>897.25</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>885.5</v>
+        <v>893.35</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>638.5</v>
+        <v>675.85</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>629.75</v>
+        <v>660.15</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>636.5</v>
+        <v>662.75</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>636.55</v>
+        <v>662.6</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>632.7</v>
+        <v>675.05</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>133</v>
+        <v>125.6</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>130.35</v>
+        <v>122.9</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>132.85</v>
+        <v>123.1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>132.55</v>
+        <v>123.2</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>899</v>
+        <v>725</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>132.6</v>
+        <v>125.35</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3618</v>
+        <v>3499</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3582.25</v>
+        <v>3455.7</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3605.15</v>
+        <v>3489.9</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3611.45</v>
+        <v>3490.2</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3599</v>
+        <v>3464.3</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3271.6</v>
+        <v>3291.15</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3240</v>
+        <v>3245.75</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3260.05</v>
+        <v>3259.95</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3260.35</v>
+        <v>3262.1</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3252</v>
+        <v>3280</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>803.75</v>
+        <v>792.85</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>787.65</v>
+        <v>769.5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>791.7</v>
+        <v>771.45</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>792.55</v>
+        <v>771.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>803.55</v>
+        <v>791.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>880.25</v>
+        <v>885.5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>863.85</v>
+        <v>861.45</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>864.55</v>
+        <v>870.95</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>866.25</v>
+        <v>874.35</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>878.7</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43919.95</v>
+        <v>43797.9</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43641.25</v>
+        <v>42996.8</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>43743.05</v>
+        <v>43138.3</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>43738.75</v>
+        <v>43141.6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>43726.05</v>
+        <v>43780.2</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>374.3</v>
+        <v>369.9</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>364.95</v>
+        <v>353.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>368.3</v>
+        <v>353.8</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>368.75</v>
+        <v>354.85</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>373.85</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>566.25</v>
+        <v>556.05</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>548.95</v>
+        <v>531</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>553.5</v>
+        <v>531.1</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>553.65</v>
+        <v>532.85</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>563.75</v>
+        <v>553.05</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>479.2</v>
+        <v>474.25</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>470</v>
+        <v>455.75</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>472</v>
+        <v>456.85</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>471.95</v>
+        <v>457</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>478.55</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>941.3</v>
+        <v>943.1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>931.85</v>
+        <v>924.55</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>932.75</v>
+        <v>929.35</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>933.4</v>
+        <v>928.6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>933.65</v>
+        <v>939.85</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>675.45</v>
+        <v>663.6</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>660</v>
+        <v>637.65</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>663.05</v>
+        <v>638.75</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>661.85</v>
+        <v>640.3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>674.9</v>
+        <v>662.05</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19576.4</v>
+        <v>19539.5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19508.3</v>
+        <v>19241.15</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19523.3</v>
+        <v>19262.9</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19527.85</v>
+        <v>19269.2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19568.1</v>
+        <v>19530.8</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2319.6</v>
+        <v>2308.25</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2292</v>
+        <v>2255</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2295.05</v>
+        <v>2258</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2297.15</v>
+        <v>2260.4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2314.65</v>
+        <v>2296.4</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>571.25</v>
+        <v>565.15</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>562.9</v>
+        <v>552.65</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>563.8</v>
+        <v>553.15</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>564.5</v>
+        <v>554.5</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>309</v>
+        <v>482</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>570.75</v>
+        <v>564.2</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>899.55</v>
+        <v>905.8</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>897.6</v>
+        <v>883</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>897.25</v>
+        <v>885.55</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>893.35</v>
+        <v>904.25</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>675.85</v>
+        <v>665.4</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>660.15</v>
+        <v>645.05</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>662.75</v>
+        <v>646</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>662.6</v>
+        <v>646.85</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>675.05</v>
+        <v>664.75</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>125.6</v>
+        <v>122.6</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>122.9</v>
+        <v>119.45</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>123.1</v>
+        <v>119.95</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>123.2</v>
+        <v>119.85</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>725</v>
+        <v>913</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>125.35</v>
+        <v>122.15</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3499</v>
+        <v>3472.95</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3455.7</v>
+        <v>3406.25</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3489.9</v>
+        <v>3411</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3490.2</v>
+        <v>3413.9</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3464.3</v>
+        <v>3470.65</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3291.15</v>
+        <v>3276.1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3245.75</v>
+        <v>3212.5</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3259.95</v>
+        <v>3219.95</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3262.1</v>
+        <v>3223.65</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3280</v>
+        <v>3248.9</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>792.85</v>
+        <v>812.25</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>769.5</v>
+        <v>800.45</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>771.45</v>
+        <v>802.7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>771.5</v>
+        <v>802.1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>791.15</v>
+        <v>809.35</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>885.5</v>
+        <v>905.5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>861.45</v>
+        <v>882.25</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>870.95</v>
+        <v>903.55</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>874.35</v>
+        <v>902.75</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>866</v>
+        <v>884.35</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43797.9</v>
+        <v>43979</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>42996.8</v>
+        <v>43517.35</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>43138.3</v>
+        <v>43938.8</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>43141.6</v>
+        <v>43926.85</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>43780.2</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>369.9</v>
+        <v>392.15</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>353.5</v>
+        <v>384.85</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>353.8</v>
+        <v>390.1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>354.85</v>
+        <v>389.8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>369</v>
+        <v>386.15</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>556.05</v>
+        <v>596.65</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>531</v>
+        <v>589.35</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>531.1</v>
+        <v>594.15</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>532.85</v>
+        <v>594.3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>553.05</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>474.25</v>
+        <v>494.05</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>455.75</v>
+        <v>484.15</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>456.85</v>
+        <v>486.3</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>457</v>
+        <v>487.25</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>473</v>
+        <v>485.35</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>943.1</v>
+        <v>952.65</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>924.55</v>
+        <v>935.8</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>929.35</v>
+        <v>951.75</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>928.6</v>
+        <v>950.4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>448</v>
+        <v>206</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>939.85</v>
+        <v>943.65</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>663.6</v>
+        <v>636</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>637.65</v>
+        <v>623.1</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>638.75</v>
+        <v>631</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>640.3</v>
+        <v>631.85</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>662.05</v>
+        <v>623.9</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19539.5</v>
+        <v>19493.9</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19241.15</v>
+        <v>19415</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19262.9</v>
+        <v>19480.05</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19269.2</v>
+        <v>19476.9</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19530.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2308.25</v>
+        <v>2345.55</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2255</v>
+        <v>2332.15</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2258</v>
+        <v>2335.35</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2260.4</v>
+        <v>2335.65</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2296.4</v>
+        <v>2344.6</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>565.15</v>
+        <v>582.35</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>552.65</v>
+        <v>576.5</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>553.15</v>
+        <v>582</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>554.5</v>
+        <v>581.2</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>482</v>
+        <v>303</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>564.2</v>
+        <v>576.8</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>905.8</v>
+        <v>926.35</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>883</v>
+        <v>918.2</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>883</v>
+        <v>925.8</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>885.55</v>
+        <v>925.45</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>904.25</v>
+        <v>923.55</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>665.4</v>
+        <v>653.3</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>645.05</v>
+        <v>647.6</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>646</v>
+        <v>648.3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>646.85</v>
+        <v>648.5</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>664.75</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>122.6</v>
+        <v>120.85</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>119.45</v>
+        <v>119.15</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>119.95</v>
+        <v>120.2</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>119.85</v>
+        <v>120.2</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>913</v>
+        <v>375</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>122.15</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3472.95</v>
+        <v>3420.75</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3406.25</v>
+        <v>3383.6</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3411</v>
+        <v>3388.7</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3413.9</v>
+        <v>3388.15</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3470.65</v>
+        <v>3410.5</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3276.1</v>
+        <v>3296</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3212.5</v>
+        <v>3277.25</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3219.95</v>
+        <v>3289.85</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3223.65</v>
+        <v>3288.2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3248.9</v>
+        <v>3279</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>812.25</v>
+        <v>817.65</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>800.45</v>
+        <v>809.55</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>802.7</v>
+        <v>813</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>802.1</v>
+        <v>812.7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>809.35</v>
+        <v>814.35</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>905.5</v>
+        <v>1011.9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>882.25</v>
+        <v>974</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>903.55</v>
+        <v>975</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>902.75</v>
+        <v>978.85</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>884.35</v>
+        <v>1009.5</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43979</v>
+        <v>44085</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43517.35</v>
+        <v>43801</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>43938.8</v>
+        <v>44005.1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>43926.85</v>
+        <v>44013.7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>43708</v>
+        <v>43929.7</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>392.15</v>
+        <v>406.65</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>384.85</v>
+        <v>388.1</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>390.1</v>
+        <v>404.8</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>389.8</v>
+        <v>404.9</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>386.15</v>
+        <v>388.4</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>596.65</v>
+        <v>611.95</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>589.35</v>
+        <v>606.3</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>594.15</v>
+        <v>609.25</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>594.3</v>
+        <v>609.25</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>591</v>
+        <v>609.5</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>494.05</v>
+        <v>493.95</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>484.15</v>
+        <v>485.35</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>486.3</v>
+        <v>489</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>487.25</v>
+        <v>489.35</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>485.35</v>
+        <v>485.95</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>952.65</v>
+        <v>939.75</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>935.8</v>
+        <v>935.55</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>951.75</v>
+        <v>937.9</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>950.4</v>
+        <v>937.95</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>943.65</v>
+        <v>939.1</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>623.1</v>
+        <v>636.05</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>631</v>
+        <v>637.85</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>631.85</v>
+        <v>638.85</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>623.9</v>
+        <v>636.6</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19493.9</v>
+        <v>19535.1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19415</v>
+        <v>19469.65</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19480.05</v>
+        <v>19488</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19476.9</v>
+        <v>19497.15</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>19500.2</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2345.55</v>
+        <v>2327.6</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2332.15</v>
+        <v>2318.75</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2335.35</v>
+        <v>2323.5</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2335.65</v>
+        <v>2322.25</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2344.6</v>
+        <v>2326.9</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>582.35</v>
+        <v>584.65</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>576.5</v>
+        <v>577.2</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>582</v>
+        <v>583.25</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>581.2</v>
+        <v>583.25</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>576.8</v>
+        <v>580.2</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>926.35</v>
+        <v>922.25</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>918.2</v>
+        <v>910.65</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>925.8</v>
+        <v>918.35</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>925.45</v>
+        <v>918.3</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>923.55</v>
+        <v>912.2</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>653.3</v>
+        <v>656.45</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>647.6</v>
+        <v>651.55</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>648.3</v>
+        <v>655</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>648.5</v>
+        <v>655.05</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>649</v>
+        <v>651.95</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>120.85</v>
+        <v>121.6</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>119.15</v>
+        <v>120.4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>120.2</v>
+        <v>120.9</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>120.2</v>
+        <v>121.1</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>375</v>
+        <v>266</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>119.4</v>
+        <v>120.6</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3420.75</v>
+        <v>3359.45</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3383.6</v>
+        <v>3340.5</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3388.7</v>
+        <v>3343.7</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3388.15</v>
+        <v>3344.5</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3410.5</v>
+        <v>3353.8</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3296</v>
+        <v>3280.2</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3277.25</v>
+        <v>3254.1</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3289.85</v>
+        <v>3266.95</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3288.2</v>
+        <v>3267.45</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3279</v>
+        <v>3262</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>817.65</v>
+        <v>818.55</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>809.55</v>
+        <v>813.05</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>813</v>
+        <v>813.9</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>812.7</v>
+        <v>814.05</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>814.35</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1011.9</v>
+        <v>982.9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>974</v>
+        <v>962.65</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>975</v>
+        <v>966.95</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>978.85</v>
+        <v>967.25</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1009.5</v>
+        <v>973.3</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44085</v>
+        <v>44435</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43801</v>
+        <v>44305.05</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44005.1</v>
+        <v>44412.85</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44013.7</v>
+        <v>44387.25</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>43929.7</v>
+        <v>44417.4</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
+        <v>411.8</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>406.65</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>388.1</v>
-      </c>
       <c r="D5" s="1" t="n">
-        <v>404.8</v>
+        <v>409.1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>404.9</v>
+        <v>408.55</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>388.4</v>
+        <v>409.45</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>611.95</v>
+        <v>626.4</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>606.3</v>
+        <v>612.85</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>609.25</v>
+        <v>624.65</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>609.25</v>
+        <v>624.35</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>609.5</v>
+        <v>613.85</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>493.95</v>
+        <v>515.15</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>485.35</v>
+        <v>504.75</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>489</v>
+        <v>507.1</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>489.35</v>
+        <v>507</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>485.95</v>
+        <v>513.6</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>939.75</v>
+        <v>946.65</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>935.55</v>
+        <v>942.75</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>937.9</v>
+        <v>945.75</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>937.95</v>
+        <v>944.9</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>939.1</v>
+        <v>943.05</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>645</v>
+        <v>659.7</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>636.05</v>
+        <v>649.15</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>637.85</v>
+        <v>649.3</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>638.85</v>
+        <v>650.8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>636.6</v>
+        <v>652.15</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19535.1</v>
+        <v>19763.65</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19469.65</v>
+        <v>19680.8</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19488</v>
+        <v>19723.6</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19497.15</v>
+        <v>19723.3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19500.2</v>
+        <v>19681.45</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2327.6</v>
+        <v>2363.85</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2318.75</v>
+        <v>2338.95</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2323.5</v>
+        <v>2362</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2322.25</v>
+        <v>2362.4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2326.9</v>
+        <v>2339.6</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>584.65</v>
+        <v>587.85</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>577.2</v>
+        <v>584.75</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>583.25</v>
+        <v>586.55</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>583.25</v>
+        <v>586.4</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>580.2</v>
+        <v>586.7</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>922.25</v>
+        <v>934.7</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>910.65</v>
+        <v>920.25</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>918.35</v>
+        <v>930.5</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>918.3</v>
+        <v>930.7</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>912.2</v>
+        <v>922.65</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>656.45</v>
+        <v>674.85</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>651.55</v>
+        <v>658.35</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>655</v>
+        <v>673.8</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>655.05</v>
+        <v>673.55</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>651.95</v>
+        <v>659.5</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>121.6</v>
+        <v>124.6</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>120.4</v>
+        <v>122.85</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>120.9</v>
+        <v>124.1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>121.1</v>
+        <v>124.2</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>266</v>
+        <v>617</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>120.6</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3359.45</v>
+        <v>3416.7</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3340.5</v>
+        <v>3380.55</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3343.7</v>
+        <v>3412.45</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3344.5</v>
+        <v>3411.2</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3353.8</v>
+        <v>3383.05</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3280.2</v>
+        <v>3306</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3254.1</v>
+        <v>3276.55</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3266.95</v>
+        <v>3298.45</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3267.45</v>
+        <v>3300.75</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3262</v>
+        <v>3287.15</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>818.55</v>
+        <v>817.3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>813.05</v>
+        <v>802.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>813.9</v>
+        <v>803.4</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>814.05</v>
+        <v>803.55</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>816</v>
+        <v>812.6</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>982.9</v>
+        <v>1033.65</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>962.65</v>
+        <v>1002</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>966.95</v>
+        <v>1032.95</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>967.25</v>
+        <v>1029.4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>973.3</v>
+        <v>1003.85</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44435</v>
+        <v>43897.45</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44305.05</v>
+        <v>43655.25</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44412.85</v>
+        <v>43800</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44387.25</v>
+        <v>43791.85</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44417.4</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>411.8</v>
+        <v>401.4</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>406.65</v>
+        <v>394.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>409.1</v>
+        <v>397.65</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>408.55</v>
+        <v>397.8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>409.45</v>
+        <v>401.2</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>626.4</v>
+        <v>643.25</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>612.85</v>
+        <v>629.15</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>624.65</v>
+        <v>636.95</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>624.35</v>
+        <v>636.95</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>613.85</v>
+        <v>633.65</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>515.15</v>
+        <v>511.5</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>504.75</v>
+        <v>506.95</v>
       </c>
       <c r="D7" s="1" t="n">
+        <v>507.7</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>507.65</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>507.1</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>513.6</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>946.65</v>
+        <v>929.1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>942.75</v>
+        <v>924.65</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>945.75</v>
+        <v>928.35</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>944.9</v>
+        <v>927.8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>943.05</v>
+        <v>927.8</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>659.7</v>
+        <v>662.6</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>649.15</v>
+        <v>656</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>649.3</v>
+        <v>658.15</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>650.8</v>
+        <v>657.25</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>652.15</v>
+        <v>657.5</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19763.65</v>
+        <v>19898</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19680.8</v>
+        <v>19815.1</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19723.6</v>
+        <v>19840.45</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19723.3</v>
+        <v>19841.3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19681.45</v>
+        <v>19827.5</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2363.85</v>
+        <v>2390.95</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2338.95</v>
+        <v>2367.4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2362</v>
+        <v>2381</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2362.4</v>
+        <v>2381.5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2339.6</v>
+        <v>2368.05</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>587.85</v>
+        <v>567.6</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>584.75</v>
+        <v>563.25</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>586.55</v>
+        <v>563.65</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>586.4</v>
+        <v>563.7</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>586.7</v>
+        <v>567.1</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>934.7</v>
+        <v>935.15</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>920.25</v>
+        <v>928.25</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>930.5</v>
+        <v>930.6</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>930.7</v>
+        <v>931.15</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>922.65</v>
+        <v>929.5</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>674.85</v>
+        <v>684.35</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>658.35</v>
+        <v>675.9</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>673.8</v>
+        <v>682.1</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>673.55</v>
+        <v>682.45</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>659.5</v>
+        <v>677.8</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>124.6</v>
+        <v>126.75</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>122.85</v>
+        <v>125.9</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>124.1</v>
+        <v>126.65</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>124.2</v>
+        <v>126.65</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>617</v>
+        <v>357</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>123.6</v>
+        <v>126.05</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3416.7</v>
+        <v>3540.8</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3380.55</v>
+        <v>3505.55</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3412.45</v>
+        <v>3511</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3411.2</v>
+        <v>3511.9</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3383.05</v>
+        <v>3537.7</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3306</v>
+        <v>3412.65</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3276.55</v>
+        <v>3368.75</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3298.45</v>
+        <v>3403</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3300.75</v>
+        <v>3402.25</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3287.15</v>
+        <v>3369</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>817.3</v>
+        <v>804</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>802.1</v>
+        <v>784.6</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>803.4</v>
+        <v>802.35</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>803.55</v>
+        <v>798.15</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>812.6</v>
+        <v>793.35</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1033.65</v>
+        <v>1044.55</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1002</v>
+        <v>1030.7</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1032.95</v>
+        <v>1032.9</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1029.4</v>
+        <v>1034.35</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1003.85</v>
+        <v>1039.35</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43897.45</v>
+        <v>43845</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43655.25</v>
+        <v>43586</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>43800</v>
+        <v>43795</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>43791.85</v>
+        <v>43805.55</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>43860</v>
+        <v>43653.1</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>401.4</v>
+        <v>396.25</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>394.5</v>
+        <v>389.6</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>397.65</v>
+        <v>390.65</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>397.8</v>
+        <v>390.25</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>401.2</v>
+        <v>395.75</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>643.25</v>
+        <v>641.4</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>629.15</v>
+        <v>629.75</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>636.95</v>
+        <v>631.15</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>636.95</v>
+        <v>630.95</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>633.65</v>
+        <v>637.35</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>511.5</v>
+        <v>512.45</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>506.95</v>
+        <v>503.45</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>507.7</v>
+        <v>508.85</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>507.65</v>
+        <v>508.65</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>507.1</v>
+        <v>503.9</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
+        <v>929.9</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>920.95</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>928.75</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>929.1</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>924.65</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>928.35</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>927.8</v>
-      </c>
       <c r="F8" s="1" t="n">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>927.8</v>
+        <v>922.8</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>662.6</v>
+        <v>661.4</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>656</v>
+        <v>653.45</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>658.15</v>
+        <v>660.75</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>657.25</v>
+        <v>660.3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>657.5</v>
+        <v>656.35</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19898</v>
+        <v>19867.9</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19815.1</v>
+        <v>19800</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19840.45</v>
+        <v>19825</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19841.3</v>
+        <v>19826.95</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19827.5</v>
+        <v>19860.05</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2390.95</v>
+        <v>2404.15</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2367.4</v>
+        <v>2394</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2381</v>
+        <v>2395.5</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2381.5</v>
+        <v>2395.75</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2368.05</v>
+        <v>2399.25</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>567.6</v>
+        <v>562.95</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>563.25</v>
+        <v>559.4</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>563.65</v>
+        <v>560.45</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>563.7</v>
+        <v>560.2</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>567.1</v>
+        <v>561.45</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>935.15</v>
+        <v>935.3</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>928.25</v>
+        <v>924.6</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>930.6</v>
+        <v>928</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>931.15</v>
+        <v>928</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>929.5</v>
+        <v>933.9</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>684.35</v>
+        <v>679.3</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>675.9</v>
+        <v>671.6</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>682.1</v>
+        <v>672.7</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>682.45</v>
+        <v>673.2</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>677.8</v>
+        <v>678.75</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>126.75</v>
+        <v>127.15</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>125.9</v>
+        <v>125.7</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>126.65</v>
+        <v>126.05</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>126.65</v>
+        <v>126</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>126.05</v>
+        <v>126.9</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3540.8</v>
+        <v>3509.4</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3505.55</v>
+        <v>3460.1</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3511</v>
+        <v>3462.25</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3511.9</v>
+        <v>3464.75</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3537.7</v>
+        <v>3505.45</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3412.65</v>
+        <v>3417.5</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3368.75</v>
+        <v>3389.7</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3403</v>
+        <v>3403.4</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3402.25</v>
+        <v>3400.45</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3369</v>
+        <v>3408.55</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>804</v>
+        <v>883.9</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>784.6</v>
+        <v>868.2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>802.35</v>
+        <v>880.8</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>798.15</v>
+        <v>882.35</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>793.35</v>
+        <v>870.7</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1044.55</v>
+        <v>1049.25</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1030.7</v>
+        <v>1030.65</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1032.9</v>
+        <v>1048.4</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1034.35</v>
+        <v>1047.55</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1039.35</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43845</v>
+        <v>46725</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43586</v>
+        <v>45801.8</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>43795</v>
+        <v>46701.2</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>43805.55</v>
+        <v>46659.55</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>43653.1</v>
+        <v>45850.05</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>396.25</v>
+        <v>432.5</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>389.6</v>
+        <v>423.1</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>390.65</v>
+        <v>431</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>390.25</v>
+        <v>430.3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>138</v>
+        <v>321</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>395.75</v>
+        <v>424.25</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>641.4</v>
+        <v>655.4</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>629.75</v>
+        <v>636.2</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>631.15</v>
+        <v>651.9</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>630.95</v>
+        <v>652.45</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>637.35</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>512.45</v>
+        <v>529.35</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>503.45</v>
+        <v>520.45</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>508.85</v>
+        <v>523.35</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>508.65</v>
+        <v>522.35</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>503.9</v>
+        <v>524.25</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>929.9</v>
+        <v>999</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>920.95</v>
+        <v>971.5</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>928.75</v>
+        <v>997.5</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>929.1</v>
+        <v>996</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>922.8</v>
+        <v>977.8</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>661.4</v>
+        <v>698.9</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>653.45</v>
+        <v>682.25</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>660.75</v>
+        <v>685.15</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>660.3</v>
+        <v>685.75</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>656.35</v>
+        <v>698.45</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>19867.9</v>
+        <v>20828.3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19800</v>
+        <v>20640.85</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>19825</v>
+        <v>20804.05</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>19826.95</v>
+        <v>20798.9</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>19860.05</v>
+        <v>20652.1</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2404.15</v>
+        <v>2439.1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2394</v>
+        <v>2416.25</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2395.5</v>
+        <v>2432.8</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2395.75</v>
+        <v>2433.65</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2399.25</v>
+        <v>2430.85</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>562.95</v>
+        <v>600.45</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>559.4</v>
+        <v>588.25</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>560.45</v>
+        <v>600.05</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>560.2</v>
+        <v>599</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>319</v>
+        <v>660</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>561.45</v>
+        <v>588.5</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>935.3</v>
+        <v>962.9</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>924.6</v>
+        <v>949.25</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>928</v>
+        <v>952.9</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>928</v>
+        <v>953.4</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>933.9</v>
+        <v>952.5</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>679.3</v>
+        <v>713.5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>671.6</v>
+        <v>707.55</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>672.7</v>
+        <v>710.3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>673.2</v>
+        <v>710.35</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>678.75</v>
+        <v>710.2</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>127.15</v>
+        <v>132.7</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>125.7</v>
+        <v>131.4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>126.05</v>
+        <v>131.6</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>126</v>
+        <v>131.6</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>126.9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3509.4</v>
+        <v>3554.5</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3460.1</v>
+        <v>3525.25</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3462.25</v>
+        <v>3536.75</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3464.75</v>
+        <v>3533.6</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3505.45</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3417.5</v>
+        <v>3535</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3389.7</v>
+        <v>3503.25</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3403.4</v>
+        <v>3512.8</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3400.45</v>
+        <v>3513.95</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3408.55</v>
+        <v>3530.15</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>883.9</v>
+        <v>1054.8</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>868.2</v>
+        <v>995.6</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>880.8</v>
+        <v>1025.25</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>882.35</v>
+        <v>1028.1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>870.7</v>
+        <v>1048.55</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1049.25</v>
+        <v>1037.2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1030.65</v>
+        <v>1007.55</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1048.4</v>
+        <v>1022</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1047.55</v>
+        <v>1022.35</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1040</v>
+        <v>1033.7</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46725</v>
+        <v>47599</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45801.8</v>
+        <v>46961.3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>46701.2</v>
+        <v>47590</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>46659.55</v>
+        <v>47499.8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>45850.05</v>
+        <v>47095</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>432.5</v>
+        <v>443.3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>423.1</v>
+        <v>431.25</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>431</v>
+        <v>440.1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>430.3</v>
+        <v>440.6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>424.25</v>
+        <v>438.5</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>655.4</v>
+        <v>666</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>636.2</v>
+        <v>643.25</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>651.9</v>
+        <v>651.8</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>652.45</v>
+        <v>651.85</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>640</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>529.35</v>
+        <v>527.5</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>520.45</v>
+        <v>515.7</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>523.35</v>
+        <v>522.85</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>522.35</v>
+        <v>522.75</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>524.25</v>
+        <v>523.25</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>999</v>
+        <v>1017.95</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>971.5</v>
+        <v>999.5</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>997.5</v>
+        <v>1016.35</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>996</v>
+        <v>1015.9</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>977.8</v>
+        <v>1000.15</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>698.9</v>
+        <v>701.55</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>682.25</v>
+        <v>679.65</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>685.15</v>
+        <v>689.3</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>685.75</v>
+        <v>690.25</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>698.45</v>
+        <v>694.65</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>20828.3</v>
+        <v>21107.45</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>20640.85</v>
+        <v>20949</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>20804.05</v>
+        <v>21090.2</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>20798.9</v>
+        <v>21075</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>20652.1</v>
+        <v>21071.1</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2439.1</v>
+        <v>2486.3</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2416.25</v>
+        <v>2450.7</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2432.8</v>
+        <v>2464</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2433.65</v>
+        <v>2465.05</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2430.85</v>
+        <v>2469.35</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>600.45</v>
+        <v>619.5</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>588.25</v>
+        <v>607.15</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>600.05</v>
+        <v>617.7</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>599</v>
+        <v>616.75</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>660</v>
+        <v>485</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>588.5</v>
+        <v>612.55</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>962.9</v>
+        <v>965.75</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>949.25</v>
+        <v>947.8</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>952.9</v>
+        <v>954.5</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>953.4</v>
+        <v>952.65</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>952.5</v>
+        <v>965.35</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>713.5</v>
+        <v>730.8</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>707.55</v>
+        <v>710.1</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>710.3</v>
+        <v>718.2</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>710.35</v>
+        <v>718.75</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>710.2</v>
+        <v>726.05</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>132.7</v>
+        <v>132.15</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>131.4</v>
+        <v>128.55</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>131.6</v>
+        <v>129.95</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>131.6</v>
+        <v>130</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>132</v>
+        <v>131.3</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3554.5</v>
+        <v>3662.05</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3525.25</v>
+        <v>3621.75</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3536.75</v>
+        <v>3643.9</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3533.6</v>
+        <v>3644.45</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3550</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3535</v>
+        <v>3654.2</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3503.25</v>
+        <v>3600.1</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3512.8</v>
+        <v>3642</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3513.95</v>
+        <v>3645.2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3530.15</v>
+        <v>3604.75</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1054.8</v>
+        <v>1042.65</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>995.6</v>
+        <v>1026.2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1025.25</v>
+        <v>1033.35</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1028.1</v>
+        <v>1033.45</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1048.55</v>
+        <v>1026.95</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1037.2</v>
+        <v>1104.5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1007.55</v>
+        <v>1081.75</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1022</v>
+        <v>1092.95</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1022.35</v>
+        <v>1091.95</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1033.7</v>
+        <v>1099.3</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>47599</v>
+        <v>48759.95</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46961.3</v>
+        <v>48404.75</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>47590</v>
+        <v>48580</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>47499.8</v>
+        <v>48628.8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>47095</v>
+        <v>48610</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
+        <v>445.25</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>438.65</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>441.4</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>441.35</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>443.3</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>431.25</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>440.1</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>440.6</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>438.5</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>666</v>
+        <v>735.95</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>643.25</v>
+        <v>726.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>651.8</v>
+        <v>729.95</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>651.85</v>
+        <v>731.05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>665</v>
+        <v>731.15</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>527.5</v>
+        <v>623.65</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>515.7</v>
+        <v>612.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>522.85</v>
+        <v>617.95</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>522.75</v>
+        <v>618.7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>523.25</v>
+        <v>616.25</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1017.95</v>
+        <v>1440.05</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>999.5</v>
+        <v>1427.35</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1016.35</v>
+        <v>1005.65</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1015.9</v>
+        <v>1005.3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1000.15</v>
+        <v>1432.25</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>701.55</v>
+        <v>758</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>679.65</v>
+        <v>741.4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>689.3</v>
+        <v>752.9</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>690.25</v>
+        <v>753.55</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>694.65</v>
+        <v>743.5</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>21107.45</v>
+        <v>21939.9</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>20949</v>
+        <v>21830</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>21090.2</v>
+        <v>21861.05</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>21075</v>
+        <v>21885.95</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>21071.1</v>
+        <v>21886.65</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2486.3</v>
+        <v>2619.35</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2450.7</v>
+        <v>2599.95</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2464</v>
+        <v>2601.5</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2465.05</v>
+        <v>2603.5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2469.35</v>
+        <v>2606.2</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>619.5</v>
+        <v>654.4</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>607.15</v>
+        <v>645.15</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>617.7</v>
+        <v>646.6</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>616.75</v>
+        <v>647.45</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>485</v>
+        <v>295</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>612.55</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>965.75</v>
+        <v>1088.25</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>947.8</v>
+        <v>1069.55</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>954.5</v>
+        <v>1084</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>952.65</v>
+        <v>1083.85</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>965.35</v>
+        <v>1073.2</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>730.8</v>
+        <v>809.4</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>710.1</v>
+        <v>767.1</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>718.2</v>
+        <v>786.5</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>718.75</v>
+        <v>786.75</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>175</v>
+        <v>675</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>726.05</v>
+        <v>768.6</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>132.15</v>
+        <v>142.55</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>128.55</v>
+        <v>138.35</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>129.95</v>
+        <v>140.45</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>130</v>
+        <v>140.65</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>528</v>
+        <v>870</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>131.3</v>
+        <v>138.65</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3662.05</v>
+        <v>3848.7</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3621.75</v>
+        <v>3809.8</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3643.9</v>
+        <v>3816.75</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3644.45</v>
+        <v>3817.1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3635</v>
+        <v>3811.1</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3654.2</v>
+        <v>3730.25</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3600.1</v>
+        <v>3692.25</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3642</v>
+        <v>3715.15</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3645.2</v>
+        <v>3709.8</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3604.75</v>
+        <v>3715.7</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1042.65</v>
+        <v>1145.65</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1026.2</v>
+        <v>1117.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1033.35</v>
+        <v>1124.85</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1033.45</v>
+        <v>1123.55</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1026.95</v>
+        <v>1136.4</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1104.5</v>
+        <v>1163.9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1081.75</v>
+        <v>1124.1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1092.95</v>
+        <v>1160.85</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1091.95</v>
+        <v>1158.4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1099.3</v>
+        <v>1135.6</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>48759.95</v>
+        <v>45550</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>48404.75</v>
+        <v>44553.85</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>48580</v>
+        <v>45131.3</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>48628.8</v>
+        <v>45152.85</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>48610</v>
+        <v>44942.55</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>445.25</v>
+        <v>459.95</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>438.65</v>
+        <v>443</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>441.4</v>
+        <v>454.55</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>441.35</v>
+        <v>455.05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>443.3</v>
+        <v>453.25</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>735.95</v>
+        <v>750.95</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>726.5</v>
+        <v>735.35</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>729.95</v>
+        <v>750.1</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>731.05</v>
+        <v>749.5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>731.15</v>
+        <v>741.3</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>623.65</v>
+        <v>568</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>612.5</v>
+        <v>555.75</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>617.95</v>
+        <v>567.8</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>618.7</v>
+        <v>566.55</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>616.25</v>
+        <v>558.2</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1440.05</v>
+        <v>1514.85</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1427.35</v>
+        <v>1480.75</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1005.65</v>
+        <v>1000.75</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1005.3</v>
+        <v>1001.3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>137</v>
+        <v>437</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1432.25</v>
+        <v>1493.5</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>758</v>
+        <v>711.5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>741.4</v>
+        <v>687.65</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>752.9</v>
+        <v>708.5</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>753.55</v>
+        <v>707.9</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>743.5</v>
+        <v>696.2</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>21939.9</v>
+        <v>21505</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>21830</v>
+        <v>21200.05</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>21861.05</v>
+        <v>21488.9</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>21885.95</v>
+        <v>21477.6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>21886.65</v>
+        <v>21252.1</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2619.35</v>
+        <v>2697.3</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2599.95</v>
+        <v>2645.45</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2601.5</v>
+        <v>2695.6</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2603.5</v>
+        <v>2689.6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2606.2</v>
+        <v>2652.15</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>654.4</v>
+        <v>621.6</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>645.15</v>
+        <v>606.7</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>646.6</v>
+        <v>618.85</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>647.45</v>
+        <v>619.7</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>295</v>
+        <v>501</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>652</v>
+        <v>609.75</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1088.25</v>
+        <v>1163.9</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1069.55</v>
+        <v>1139.3</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1084</v>
+        <v>1160.95</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1083.85</v>
+        <v>1161.8</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1073.2</v>
+        <v>1144.85</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>809.4</v>
+        <v>809.45</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>767.1</v>
+        <v>789.7</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>786.5</v>
+        <v>809.15</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>786.75</v>
+        <v>807.9</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>675</v>
+        <v>224</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>768.6</v>
+        <v>794.7</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>142.55</v>
+        <v>135.8</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>138.35</v>
+        <v>130.55</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>140.45</v>
+        <v>135.05</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>140.65</v>
+        <v>135.4</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>870</v>
+        <v>1091</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>138.65</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3848.7</v>
+        <v>3862.75</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3809.8</v>
+        <v>3809.7</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3816.75</v>
+        <v>3858.3</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3817.1</v>
+        <v>3848.3</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3811.1</v>
+        <v>3851.2</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3730.25</v>
+        <v>3778.35</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3692.25</v>
+        <v>3711.9</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3715.15</v>
+        <v>3774.9</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3709.8</v>
+        <v>3768.65</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3715.7</v>
+        <v>3738.35</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1145.65</v>
+        <v>1332</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1117.1</v>
+        <v>1296.85</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1124.85</v>
+        <v>1320.9</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1123.55</v>
+        <v>1319.85</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1136.4</v>
+        <v>1311.7</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1163.9</v>
+        <v>1054</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1124.1</v>
+        <v>1040.7</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1160.85</v>
+        <v>1043.9</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1158.4</v>
+        <v>1043.95</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1135.6</v>
+        <v>1043.25</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45550</v>
+        <v>47399</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44553.85</v>
+        <v>46764.55</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45131.3</v>
+        <v>46799.95</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45152.85</v>
+        <v>46842.65</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44942.55</v>
+        <v>47118.2</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>459.95</v>
+        <v>599.7</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>443</v>
+        <v>579.05</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>454.55</v>
+        <v>579.5</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>455.05</v>
+        <v>580.6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>453.25</v>
+        <v>595.4</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>750.95</v>
+        <v>904.1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>735.35</v>
+        <v>892</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>750.1</v>
+        <v>898.1</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>749.5</v>
+        <v>898.55</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>741.3</v>
+        <v>898.55</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>568</v>
+        <v>524.4</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>555.75</v>
+        <v>516.45</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>567.8</v>
+        <v>518</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>566.55</v>
+        <v>517.8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>558.2</v>
+        <v>519.85</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1514.85</v>
+        <v>1071.45</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1480.75</v>
+        <v>1059.75</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1000.75</v>
+        <v>1062.55</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1001.3</v>
+        <v>1062.55</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>437</v>
+        <v>295</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1493.5</v>
+        <v>1064.2</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>711.5</v>
+        <v>794.8</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>687.65</v>
+        <v>783</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>708.5</v>
+        <v>785.85</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>707.9</v>
+        <v>785.3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>696.2</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>21505</v>
+        <v>22322.7</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>21200.05</v>
+        <v>22207</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>21488.9</v>
+        <v>22222</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>21477.6</v>
+        <v>22228.85</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>21252.1</v>
+        <v>22270.15</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2697.3</v>
+        <v>2997.1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2645.45</v>
+        <v>2972</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2695.6</v>
+        <v>2986.8</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2689.6</v>
+        <v>2985.9</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2652.15</v>
+        <v>2974.95</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>621.6</v>
+        <v>770.75</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>606.7</v>
+        <v>756.25</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>618.85</v>
+        <v>759.95</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>619.7</v>
+        <v>759.75</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>501</v>
+        <v>353</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>609.75</v>
+        <v>769.2</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1163.9</v>
+        <v>1168.65</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1139.3</v>
+        <v>1157</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1160.95</v>
+        <v>1159.1</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1161.8</v>
+        <v>1161.15</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1144.85</v>
+        <v>1164.6</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>809.45</v>
+        <v>939.1</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>789.7</v>
+        <v>929.05</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>809.15</v>
+        <v>934.85</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>807.9</v>
+        <v>936</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>794.7</v>
+        <v>934.45</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>135.8</v>
+        <v>147.05</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>130.55</v>
+        <v>145.05</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>135.05</v>
+        <v>145.3</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>135.4</v>
+        <v>145.45</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1091</v>
+        <v>543</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>131</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3862.75</v>
+        <v>4111.45</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3809.7</v>
+        <v>4053.6</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3858.3</v>
+        <v>4056.6</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3848.3</v>
+        <v>4059.1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3851.2</v>
+        <v>4097.5</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3778.35</v>
+        <v>3745.2</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3711.9</v>
+        <v>3688.75</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3774.9</v>
+        <v>3692.3</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3768.65</v>
+        <v>3695.3</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3738.35</v>
+        <v>3700.8</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1332</v>
+        <v>1362.45</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1296.85</v>
+        <v>1342.7</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1320.9</v>
+        <v>1351.55</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1319.85</v>
+        <v>1351.9</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1311.7</v>
+        <v>1358.85</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1054</v>
+        <v>1121.85</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1040.7</v>
+        <v>1091.15</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1043.9</v>
+        <v>1095.75</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1043.95</v>
+        <v>1097.8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1043.25</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>47399</v>
+        <v>47780</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46764.55</v>
+        <v>47424.1</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>46799.95</v>
+        <v>47685.65</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>46842.65</v>
+        <v>47691.25</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>47118.2</v>
+        <v>47703.65</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>599.7</v>
+        <v>598.7</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>579.05</v>
+        <v>587.45</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>579.5</v>
+        <v>595.45</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>580.6</v>
+        <v>595.9</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>447</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>595.4</v>
+        <v>593.85</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>904.1</v>
+        <v>946.05</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>892</v>
+        <v>929.55</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>898.1</v>
+        <v>936.35</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>898.55</v>
+        <v>935.6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>898.55</v>
+        <v>931.75</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>524.4</v>
+        <v>533.2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>516.45</v>
+        <v>522.35</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>518</v>
+        <v>528.75</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>517.8</v>
+        <v>528.55</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>519.85</v>
+        <v>526.2</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1071.45</v>
+        <v>1097.8</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1059.75</v>
+        <v>1087</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1062.55</v>
+        <v>1094.5</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1062.55</v>
+        <v>1094.8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1064.2</v>
+        <v>1091.45</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>794.8</v>
+        <v>852.75</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>783</v>
+        <v>830.15</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>785.85</v>
+        <v>843.15</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>785.3</v>
+        <v>842.65</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>791</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>22322.7</v>
+        <v>22544.95</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>22207</v>
+        <v>22466</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>22222</v>
+        <v>22500.95</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>22228.85</v>
+        <v>22497.95</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>22270.15</v>
+        <v>22517.45</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2997.1</v>
+        <v>3037</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2972</v>
+        <v>2995.1</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2986.8</v>
+        <v>3022.1</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2985.9</v>
+        <v>3026.45</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2974.95</v>
+        <v>3002.45</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>770.75</v>
+        <v>779.8</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>756.25</v>
+        <v>772.85</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>759.95</v>
+        <v>774.95</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>759.75</v>
+        <v>775.2</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>353</v>
+        <v>244</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>769.2</v>
+        <v>778.35</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1168.65</v>
+        <v>1216.8</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1157</v>
+        <v>1196.35</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1159.1</v>
+        <v>1209.65</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1161.15</v>
+        <v>1207.95</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1164.6</v>
+        <v>1202.95</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>939.1</v>
+        <v>996.4</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>929.05</v>
+        <v>985.4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>934.85</v>
+        <v>993.6</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>936</v>
+        <v>992.5</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>934.45</v>
+        <v>996</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>147.05</v>
+        <v>155.85</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>145.05</v>
+        <v>151.8</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>145.3</v>
+        <v>154.05</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>145.45</v>
+        <v>154.05</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>543</v>
+        <v>1317</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>146.4</v>
+        <v>153.45</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4111.45</v>
+        <v>4135.9</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4053.6</v>
+        <v>4104</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4056.6</v>
+        <v>4108.6</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4059.1</v>
+        <v>4108.15</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4097.5</v>
+        <v>4133.45</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3745.2</v>
+        <v>3773.95</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3688.75</v>
+        <v>3735.9</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3692.3</v>
+        <v>3749</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3695.3</v>
+        <v>3748.6</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3700.8</v>
+        <v>3755.6</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1362.45</v>
+        <v>1360.5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1342.7</v>
+        <v>1335.6</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1351.55</v>
+        <v>1338.85</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1351.9</v>
+        <v>1340.7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1358.85</v>
+        <v>1345.3</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1121.85</v>
+        <v>1175</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1091.15</v>
+        <v>1156.25</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1095.75</v>
+        <v>1164</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1097.8</v>
+        <v>1164.6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1099</v>
+        <v>1164.7</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>47780</v>
+        <v>48134.15</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>47424.1</v>
+        <v>47731</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>47685.65</v>
+        <v>47910</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>47691.25</v>
+        <v>47908.55</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>47703.65</v>
+        <v>48059.95</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>598.7</v>
+        <v>119.65</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>587.45</v>
+        <v>116.9</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>595.45</v>
+        <v>119.2</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>595.9</v>
+        <v>119.2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>593.85</v>
+        <v>117.15</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>946.05</v>
+        <v>850.75</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>929.55</v>
+        <v>827.7</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>936.35</v>
+        <v>828</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>935.6</v>
+        <v>829.3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>931.75</v>
+        <v>831.6</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>533.2</v>
+        <v>660.6</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>522.35</v>
+        <v>651.7</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>528.75</v>
+        <v>656.45</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>528.55</v>
+        <v>657.15</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>526.2</v>
+        <v>657.75</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1097.8</v>
+        <v>1131</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1087</v>
+        <v>1118.8</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1094.5</v>
+        <v>1129.65</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1094.8</v>
+        <v>1129.05</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1091.45</v>
+        <v>1127.2</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>852.75</v>
+        <v>1002.1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>830.15</v>
+        <v>978.7</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>843.15</v>
+        <v>998.8</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>842.65</v>
+        <v>998</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>831</v>
+        <v>991.25</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>22544.95</v>
+        <v>22375.45</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>22466</v>
+        <v>22211</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>22500.95</v>
+        <v>22280.5</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>22497.95</v>
+        <v>22287.05</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>22517.45</v>
+        <v>22336</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3037</v>
+        <v>2868.55</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2995.1</v>
+        <v>2840.15</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>3022.1</v>
+        <v>2844.5</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>3026.45</v>
+        <v>2845.05</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>3002.45</v>
+        <v>2850.6</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>779.8</v>
+        <v>815.3</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>772.85</v>
+        <v>807.65</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>774.95</v>
+        <v>810.65</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>775.2</v>
+        <v>810.55</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>778.35</v>
+        <v>812.55</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1216.8</v>
+        <v>1082.5</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1196.35</v>
+        <v>1064.2</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1209.65</v>
+        <v>1068</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1207.95</v>
+        <v>1067.3</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1202.95</v>
+        <v>1081.15</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>996.4</v>
+        <v>973.55</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>985.4</v>
+        <v>949.2</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>993.6</v>
+        <v>949.6</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>992.5</v>
+        <v>951.4</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>996</v>
+        <v>970.95</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>155.85</v>
+        <v>168.45</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>151.8</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>154.05</v>
+        <v>166.5</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>154.05</v>
+        <v>166.4</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1317</v>
+        <v>652</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>153.45</v>
+        <v>167.25</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4135.9</v>
+        <v>3909.25</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4104</v>
+        <v>3864</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4108.6</v>
+        <v>3871.9</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4108.15</v>
+        <v>3871.75</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4133.45</v>
+        <v>3905.9</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3773.95</v>
+        <v>3323</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3735.9</v>
+        <v>3274.05</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3749</v>
+        <v>3285</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3748.6</v>
+        <v>3284.95</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3755.6</v>
+        <v>3311.1</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1360.5</v>
+        <v>1430.8</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1335.6</v>
+        <v>1393</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1338.85</v>
+        <v>1410.85</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1340.7</v>
+        <v>1412.45</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1345.3</v>
+        <v>1397.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1175</v>
+        <v>1232.45</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1156.25</v>
+        <v>1204.35</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1164</v>
+        <v>1217</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1164.6</v>
+        <v>1218.65</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1164.7</v>
+        <v>1210.5</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>48134.15</v>
+        <v>48950</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>47731</v>
+        <v>48423.8</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>47910</v>
+        <v>48505</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>47908.55</v>
+        <v>48501.35</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>48059.95</v>
+        <v>48943.25</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>119.65</v>
+        <v>118.3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>119.2</v>
+        <v>116.35</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>119.2</v>
+        <v>116.5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>249</v>
+        <v>945</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>117.15</v>
+        <v>116.45</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>850.75</v>
+        <v>828.5</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>827.7</v>
+        <v>818.55</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>828</v>
+        <v>819.05</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>829.3</v>
+        <v>820.35</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>831.6</v>
+        <v>820.45</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>660.6</v>
+        <v>714.5</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>651.7</v>
+        <v>684.7</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>656.45</v>
+        <v>705.1</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>657.15</v>
+        <v>705.85</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>657.75</v>
+        <v>689.45</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1131</v>
+        <v>1123.2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1118.8</v>
+        <v>1102.4</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1129.65</v>
+        <v>1107.75</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1129.05</v>
+        <v>1106.45</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1127.2</v>
+        <v>1122.6</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1002.1</v>
+        <v>1054.8</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>978.7</v>
+        <v>1035</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>998.8</v>
+        <v>1041.5</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>998</v>
+        <v>1043.45</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>991.25</v>
+        <v>1052.55</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>22375.45</v>
+        <v>22864.3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>22211</v>
+        <v>22721.75</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>22280.5</v>
+        <v>22731</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>22287.05</v>
+        <v>22743.8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>22336</v>
+        <v>22845</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2868.55</v>
+        <v>2921.9</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2840.15</v>
+        <v>2883</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2844.5</v>
+        <v>2886.45</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2845.05</v>
+        <v>2888</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2850.6</v>
+        <v>2912.65</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>815.3</v>
+        <v>834.85</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>807.65</v>
+        <v>821.55</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>810.65</v>
+        <v>827.05</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>810.55</v>
+        <v>824.75</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>812.55</v>
+        <v>831.6</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1082.5</v>
+        <v>1090.75</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1064.2</v>
+        <v>1070.95</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1068</v>
+        <v>1071.9</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1067.3</v>
+        <v>1074.5</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1081.15</v>
+        <v>1088.35</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>973.55</v>
+        <v>954</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>949.2</v>
+        <v>942.3</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>949.6</v>
+        <v>946.3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>951.4</v>
+        <v>947.7</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>970.95</v>
+        <v>944.25</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>168.45</v>
+        <v>176.5</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>166</v>
+        <v>173.9</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>166.5</v>
+        <v>174.5</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>166.4</v>
+        <v>174.65</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>652</v>
+        <v>831</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>167.25</v>
+        <v>175.85</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3909.25</v>
+        <v>3842</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3864</v>
+        <v>3807.3</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3871.9</v>
+        <v>3808.05</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3871.75</v>
+        <v>3810.3</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3905.9</v>
+        <v>3838.95</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3323</v>
+        <v>3425</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3274.05</v>
+        <v>3378.6</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3285</v>
+        <v>3388.5</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3284.95</v>
+        <v>3387.15</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3311.1</v>
+        <v>3410</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1430.8</v>
+        <v>1445.5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1393</v>
+        <v>1397.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1410.85</v>
+        <v>1430.35</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1412.45</v>
+        <v>1433.75</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1397.15</v>
+        <v>1398.75</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1232.45</v>
+        <v>1267</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1204.35</v>
+        <v>1242</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1217</v>
+        <v>1259</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1218.65</v>
+        <v>1260.2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1210.5</v>
+        <v>1245.6</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>48950</v>
+        <v>50175</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>48423.8</v>
+        <v>49750</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>48505</v>
+        <v>50035</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>48501.35</v>
+        <v>50042.4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>48943.25</v>
+        <v>49811.85</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>118.3</v>
+        <v>121.4</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>115.9</v>
+        <v>119.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>116.35</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>116.5</v>
+        <v>121.1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>945</v>
+        <v>463</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>116.45</v>
+        <v>119.65</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>828.5</v>
+        <v>883.9</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>818.55</v>
+        <v>872.45</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>819.05</v>
+        <v>877.8</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>820.35</v>
+        <v>878.65</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>820.45</v>
+        <v>873.6</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>714.5</v>
+        <v>687.5</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>684.7</v>
+        <v>679.25</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>705.1</v>
+        <v>683.15</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>705.85</v>
+        <v>683.5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>689.45</v>
+        <v>680.2</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1123.2</v>
+        <v>1111.6</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1102.4</v>
+        <v>1099.1</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1107.75</v>
+        <v>1102.95</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1106.45</v>
+        <v>1103.35</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1122.6</v>
+        <v>1100.6</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1054.8</v>
+        <v>1061.9</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1035</v>
+        <v>1036.7</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>1041.5</v>
+        <v>1054.25</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1043.45</v>
+        <v>1055</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1052.55</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>22864.3</v>
+        <v>23489.85</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>22721.75</v>
+        <v>23350.8</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>22731</v>
+        <v>23457.1</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>22743.8</v>
+        <v>23466.65</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>22845</v>
+        <v>23376.3</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2921.9</v>
+        <v>2959.7</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2883</v>
+        <v>2919.1</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2886.45</v>
+        <v>2953</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2888</v>
+        <v>2955.4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2912.65</v>
+        <v>2922.25</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>834.85</v>
+        <v>848.4</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>821.55</v>
+        <v>838.95</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>827.05</v>
+        <v>840.45</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>824.75</v>
+        <v>840.5</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>831.6</v>
+        <v>843.75</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1090.75</v>
+        <v>1124.8</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1070.95</v>
+        <v>1113.35</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1071.9</v>
+        <v>1115.95</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1074.5</v>
+        <v>1114.9</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1088.35</v>
+        <v>1120.6</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>954</v>
+        <v>998.3</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>942.3</v>
+        <v>984.4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>946.3</v>
+        <v>992.85</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>947.7</v>
+        <v>994.2</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>944.25</v>
+        <v>985.4</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>176.5</v>
+        <v>183.7</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>173.9</v>
+        <v>181.95</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>174.5</v>
+        <v>183.25</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>174.65</v>
+        <v>183.3</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>831</v>
+        <v>360</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>175.85</v>
+        <v>182.2</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3842</v>
+        <v>3870</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3807.3</v>
+        <v>3828.95</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3808.05</v>
+        <v>3834</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3810.3</v>
+        <v>3832.55</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3838.95</v>
+        <v>3866.8</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3425</v>
+        <v>3525</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3378.6</v>
+        <v>3469.3</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3388.5</v>
+        <v>3521</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3387.15</v>
+        <v>3519.05</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3410</v>
+        <v>3482.3</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,22 +490,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1497.85</v>
+        <v>1482.25</v>
       </c>
       <c r="C2" s="2">
-        <v>1472.7</v>
+        <v>1451.35</v>
       </c>
       <c r="D2" s="1">
-        <v>3123</v>
+        <v>3025.6</v>
       </c>
       <c r="E2" s="1">
-        <v>1482.5</v>
+        <v>1486.15</v>
       </c>
       <c r="F2" s="1">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1">
-        <v>1495.1</v>
+        <v>1471.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -513,22 +513,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>1322.4</v>
+        <v>1573.9</v>
       </c>
       <c r="C3" s="2">
-        <v>1292.05</v>
+        <v>1556.1</v>
       </c>
       <c r="D3" s="1">
-        <v>1308.5</v>
+        <v>1572.75</v>
       </c>
       <c r="E3" s="1">
-        <v>1308.3499999999999</v>
+        <v>1573.1</v>
       </c>
       <c r="F3" s="1">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1">
-        <v>1321</v>
+        <v>1570.75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -536,22 +536,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>52802.85</v>
+        <v>51670</v>
       </c>
       <c r="C4" s="2">
-        <v>52350.1</v>
+        <v>51346.400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>52578</v>
+        <v>51500</v>
       </c>
       <c r="E4" s="1">
-        <v>52560.5</v>
+        <v>51490.75</v>
       </c>
       <c r="F4" s="1">
         <v>19</v>
       </c>
       <c r="G4" s="1">
-        <v>52716.2</v>
+        <v>51475.9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,22 +559,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>118.39</v>
+        <v>110.8</v>
       </c>
       <c r="C5" s="2">
-        <v>115.16</v>
+        <v>108.79</v>
       </c>
       <c r="D5" s="1">
-        <v>115.54</v>
+        <v>110.11</v>
       </c>
       <c r="E5" s="1">
-        <v>115.45</v>
+        <v>111.1</v>
       </c>
       <c r="F5" s="1">
-        <v>504</v>
+        <v>1028</v>
       </c>
       <c r="G5" s="1">
-        <v>117.56</v>
+        <v>110.41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -582,22 +582,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>842.3</v>
+        <v>835.4</v>
       </c>
       <c r="C6" s="2">
-        <v>831.75</v>
+        <v>819.7</v>
       </c>
       <c r="D6" s="1">
-        <v>839.7</v>
+        <v>831.9</v>
       </c>
       <c r="E6" s="1">
-        <v>839.6</v>
+        <v>838.4</v>
       </c>
       <c r="F6" s="1">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1">
-        <v>842</v>
+        <v>833.95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,22 +605,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>708.5</v>
+        <v>700.8</v>
       </c>
       <c r="C7" s="2">
-        <v>693.95</v>
+        <v>690.3</v>
       </c>
       <c r="D7" s="1">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E7" s="1">
-        <v>698.6</v>
+        <v>703.65</v>
       </c>
       <c r="F7" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1">
-        <v>703.35</v>
+        <v>696.1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -628,22 +628,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>1240</v>
+        <v>1234.8</v>
       </c>
       <c r="C8" s="2">
-        <v>1226.4000000000001</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>1235.8499999999999</v>
+        <v>1224</v>
       </c>
       <c r="E8" s="1">
-        <v>1234.9000000000001</v>
+        <v>1229.9000000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="G8" s="1">
-        <v>1235.55</v>
+        <v>1221.45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -651,22 +651,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>1055.2</v>
+        <v>967.25</v>
       </c>
       <c r="C9" s="2">
-        <v>1028.3</v>
+        <v>947.35</v>
       </c>
       <c r="D9" s="1">
-        <v>1032.9000000000001</v>
+        <v>960.55</v>
       </c>
       <c r="E9" s="1">
-        <v>1031.3</v>
+        <v>967.65</v>
       </c>
       <c r="F9" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1">
-        <v>1052.0999999999999</v>
+        <v>962.35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -674,22 +674,22 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>24399</v>
+        <v>25290</v>
       </c>
       <c r="C10" s="2">
-        <v>24286.5</v>
+        <v>25113</v>
       </c>
       <c r="D10" s="1">
-        <v>24379.15</v>
+        <v>25270</v>
       </c>
       <c r="E10" s="1">
-        <v>23638.9</v>
+        <v>25265.200000000001</v>
       </c>
       <c r="F10" s="1">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1">
-        <v>24376</v>
+        <v>25172.85</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,22 +697,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>3224.3</v>
+        <v>3071.6</v>
       </c>
       <c r="C11" s="2">
-        <v>3172</v>
+        <v>2991</v>
       </c>
       <c r="D11" s="1">
-        <v>3206.15</v>
+        <v>3037.2</v>
       </c>
       <c r="E11" s="1">
-        <v>3208.1</v>
+        <v>3057.5</v>
       </c>
       <c r="F11" s="1">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="G11" s="1">
-        <v>3192.45</v>
+        <v>3001.6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,22 +720,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>869.4</v>
+        <v>815.35</v>
       </c>
       <c r="C12" s="2">
-        <v>858.55</v>
+        <v>808.75</v>
       </c>
       <c r="D12" s="1">
-        <v>860.05</v>
+        <v>812.8</v>
       </c>
       <c r="E12" s="1">
-        <v>860.05</v>
+        <v>818.9</v>
       </c>
       <c r="F12" s="1">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="G12" s="1">
-        <v>863.6</v>
+        <v>809.75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -743,22 +743,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>1170</v>
+        <v>1208.3499999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>1140.25</v>
+        <v>1186.1500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>1154.3499999999999</v>
+        <v>1197.3499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>1154.4000000000001</v>
+        <v>1204.75</v>
       </c>
       <c r="F13" s="1">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1">
-        <v>1143</v>
+        <v>1200.5999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,22 +766,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>1021.3</v>
+        <v>1139.0999999999999</v>
       </c>
       <c r="C14" s="2">
-        <v>1001.45</v>
+        <v>1064.5</v>
       </c>
       <c r="D14" s="1">
-        <v>1006.7</v>
+        <v>1110</v>
       </c>
       <c r="E14" s="1">
-        <v>1006.75</v>
+        <v>1106.0999999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="G14" s="1">
-        <v>1016</v>
+        <v>1073.95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,22 +789,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>176</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>172.5</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>172.88</v>
+        <v>153.25</v>
       </c>
       <c r="E15" s="1">
-        <v>172.7</v>
+        <v>154.08000000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>545</v>
+        <v>929</v>
       </c>
       <c r="G15" s="1">
-        <v>175.67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -812,22 +812,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>4024.95</v>
+        <v>4549.75</v>
       </c>
       <c r="C16" s="2">
-        <v>3985.7</v>
+        <v>4492.75</v>
       </c>
       <c r="D16" s="1">
-        <v>3999</v>
+        <v>4520.95</v>
       </c>
       <c r="E16" s="1">
-        <v>3996.8</v>
+        <v>4540.55</v>
       </c>
       <c r="F16" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
-        <v>4024.25</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -835,22 +835,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>3175</v>
+        <v>3548.85</v>
       </c>
       <c r="C17" s="2">
-        <v>3140.1</v>
+        <v>3506.05</v>
       </c>
       <c r="D17" s="1">
-        <v>3171.5</v>
+        <v>3540</v>
       </c>
       <c r="E17" s="1">
-        <v>3171.35</v>
+        <v>3557.4</v>
       </c>
       <c r="F17" s="1">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1">
-        <v>3161</v>
+        <v>3523.1</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1494</v>
+        <v>1480.65</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1474.9</v>
+        <v>1469.25</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>3051.2</v>
+        <v>3028.9</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1490.55</v>
+        <v>1470.9</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1483.95</v>
+        <v>1477.75</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1586.8</v>
+        <v>1567.5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1569.5</v>
+        <v>1538</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1579.15</v>
+        <v>1540.25</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1578.35</v>
+        <v>1542.1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1569.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>51729</v>
+        <v>51775</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>51580.2</v>
+        <v>51641.05</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>51651.3</v>
+        <v>51712</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>51663.1</v>
+        <v>51727.6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>51639.95</v>
+        <v>51736.3</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>113.11</v>
+        <v>109.3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>111.69</v>
+        <v>108.09</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>112.1</v>
+        <v>108.77</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>112.06</v>
+        <v>108.8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>111.8</v>
+        <v>108.95</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
+        <v>854.5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>842.65</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>844.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>853</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>843.8</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>849.8</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>850.3</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>845.25</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>712.65</v>
+        <v>674.7</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>698.85</v>
+        <v>670.65</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>706.05</v>
+        <v>671.6</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>706.2</v>
+        <v>672.2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>699.15</v>
+        <v>672.25</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1239.85</v>
+        <v>1245.4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1225</v>
+        <v>1237.75</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1237.7</v>
+        <v>1241.55</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1236.55</v>
+        <v>1241.6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1228.5</v>
+        <v>1244.8</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>981.95</v>
+        <v>960.9</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>968</v>
+        <v>947.8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>974.4</v>
+        <v>952.05</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>974.5</v>
+        <v>953.9</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>968.35</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>25399</v>
+        <v>25313.45</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>25281.7</v>
+        <v>25225</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>25398.45</v>
+        <v>25235</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>25376.9</v>
+        <v>25236.75</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>25318.4</v>
+        <v>25305</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3066.05</v>
+        <v>3049.35</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3017.35</v>
+        <v>2989.1</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>3042</v>
+        <v>3004</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>3038.9</v>
+        <v>2999.45</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>3061.65</v>
+        <v>3046.6</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>825.7</v>
+        <v>824.45</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>819.05</v>
+        <v>817.65</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>821.25</v>
+        <v>821.15</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>821.05</v>
+        <v>821.45</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>820.4</v>
+        <v>818.4</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1214</v>
+        <v>1212.2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1204.05</v>
+        <v>1191.3</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1211</v>
+        <v>1192.7</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1208.4</v>
+        <v>1193.15</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1207.15</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1111.05</v>
+        <v>1081.4</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1097.4</v>
+        <v>1070.1</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>1104.75</v>
+        <v>1071.8</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1105.85</v>
+        <v>1072</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1102.7</v>
+        <v>1077.55</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>156.15</v>
+        <v>153.49</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>153.55</v>
+        <v>152.19</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>154.16</v>
+        <v>152.57</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>153.81</v>
+        <v>152.44</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>675</v>
+        <v>439</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>154.56</v>
+        <v>153.39</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4598.6</v>
+        <v>4513.5</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4525.25</v>
+        <v>4478.7</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4589.05</v>
+        <v>4502.25</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4579.4</v>
+        <v>4497.05</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4529</v>
+        <v>4499.65</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3609.65</v>
+        <v>3770.95</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3571.7</v>
+        <v>3633</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3583.05</v>
+        <v>3728.7</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3585.65</v>
+        <v>3732.6</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3581.8</v>
+        <v>3641</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1480.65</v>
+        <v>1484.8</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1469.25</v>
+        <v>1463.7</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>3028.9</v>
+        <v>3167.6</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1470.9</v>
+        <v>1467.9</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1477.75</v>
+        <v>1475.9</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1567.5</v>
+        <v>1534</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1538</v>
+        <v>1504.35</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1540.25</v>
+        <v>1524.5</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1542.1</v>
+        <v>1524.95</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>1518.35</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>51775</v>
+        <v>54587.1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>51641.05</v>
+        <v>54125</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>51712</v>
+        <v>54204.1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>51727.6</v>
+        <v>54220</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>51736.3</v>
+        <v>54493.75</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>109.3</v>
+        <v>113.97</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>108.09</v>
+        <v>110.7</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>108.77</v>
+        <v>113.45</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>108.8</v>
+        <v>113.76</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>423</v>
+        <v>1425</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>108.95</v>
+        <v>110.93</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>854.5</v>
+        <v>936.15</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>842.65</v>
+        <v>910.55</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>844</v>
+        <v>921.5</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>844.1</v>
+        <v>920.3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>853</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>674.7</v>
+        <v>761.8</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>670.65</v>
+        <v>748.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>671.6</v>
+        <v>752.75</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>672.2</v>
+        <v>753.3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>672.25</v>
+        <v>753.95</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1245.4</v>
+        <v>1329.2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1237.75</v>
+        <v>1315.45</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1241.55</v>
+        <v>1317.7</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1241.6</v>
+        <v>1317.85</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1244.8</v>
+        <v>1328.45</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>960.9</v>
+        <v>1050.2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>947.8</v>
+        <v>1019.2</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>952.05</v>
+        <v>1030.25</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>953.9</v>
+        <v>1034.2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>955</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>25313.45</v>
+        <v>26402.9</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>25225</v>
+        <v>26310</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>25235</v>
+        <v>26345.6</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>25236.75</v>
+        <v>26345.15</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>25305</v>
+        <v>26345.9</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3049.35</v>
+        <v>3095</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2989.1</v>
+        <v>3005</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>3004</v>
+        <v>3077.95</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2999.45</v>
+        <v>3081.55</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>3046.6</v>
+        <v>3015.8</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>824.45</v>
+        <v>814.55</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>817.65</v>
+        <v>803.8</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>821.15</v>
+        <v>809.5</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>821.45</v>
+        <v>809.45</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>818.4</v>
+        <v>809.6</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1212.2</v>
+        <v>1223.55</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1191.3</v>
+        <v>1210.4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1192.7</v>
+        <v>1213.3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1193.15</v>
+        <v>1212.75</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1205</v>
+        <v>1213.7</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1081.4</v>
+        <v>1005.35</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1070.1</v>
+        <v>995.1</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>1071.8</v>
+        <v>999</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1072</v>
+        <v>1000.75</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1077.55</v>
+        <v>997.1</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>153.49</v>
+        <v>170.35</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>152.19</v>
+        <v>167.3</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>152.57</v>
+        <v>167.65</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>152.44</v>
+        <v>167.88</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>439</v>
+        <v>1063</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>153.39</v>
+        <v>168.14</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4513.5</v>
+        <v>4395.9</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4478.7</v>
+        <v>4320</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4502.25</v>
+        <v>4327</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4497.05</v>
+        <v>4330.5</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4499.65</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3770.95</v>
+        <v>3899.5</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3633</v>
+        <v>3800</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3728.7</v>
+        <v>3853.15</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3732.6</v>
+        <v>3851.75</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3641</v>
+        <v>3800.65</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1484.8</v>
+        <v>1481.7</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1463.7</v>
+        <v>1457</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>3167.6</v>
+        <v>3205</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1467.9</v>
+        <v>1476.3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1475.9</v>
+        <v>1461.8</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1534</v>
+        <v>1472.9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1504.35</v>
+        <v>1418.05</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1524.5</v>
+        <v>1452.95</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1524.95</v>
+        <v>1450.7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1518.35</v>
+        <v>1469.8</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>54587.1</v>
+        <v>53645</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>54125</v>
+        <v>53252</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>54204.1</v>
+        <v>53390</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>54220</v>
+        <v>53381.2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>54493.75</v>
+        <v>53635</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>113.97</v>
+        <v>113.15</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>113.45</v>
+        <v>111.21</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>113.76</v>
+        <v>111.34</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1425</v>
+        <v>565</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>110.93</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>936.15</v>
+        <v>922</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>910.55</v>
+        <v>900.1</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>921.5</v>
+        <v>918.95</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>920.3</v>
+        <v>919.5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>933</v>
+        <v>910.1</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>761.8</v>
+        <v>770</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>748.5</v>
+        <v>750.4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>752.75</v>
+        <v>765.35</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>753.3</v>
+        <v>766.05</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>753.95</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1329.2</v>
+        <v>1289.2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1315.45</v>
+        <v>1277.25</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1317.7</v>
+        <v>1286.65</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1317.85</v>
+        <v>1284.9</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1328.45</v>
+        <v>1288.6</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1050.2</v>
+        <v>1049</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1019.2</v>
+        <v>1025.5</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>1030.25</v>
+        <v>1044</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1034.2</v>
+        <v>1044.5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1041</v>
+        <v>1045.35</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>26402.9</v>
+        <v>26059.95</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>26310</v>
+        <v>25890</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>26345.6</v>
+        <v>25976.4</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>26345.15</v>
+        <v>25969.25</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>26345.9</v>
+        <v>26049.2</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3095</v>
+        <v>2990.35</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3005</v>
+        <v>2950.65</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>3077.95</v>
+        <v>2953.5</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>3081.55</v>
+        <v>2954.4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>3015.8</v>
+        <v>2990.1</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>814.55</v>
+        <v>804.5</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>803.8</v>
+        <v>796.85</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>809.5</v>
+        <v>801.9</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>809.45</v>
+        <v>803.5</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>809.6</v>
+        <v>799.5</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1223.55</v>
+        <v>1214.8</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1210.4</v>
+        <v>1200.35</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1213.3</v>
+        <v>1205.9</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1212.75</v>
+        <v>1206.4</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1213.7</v>
+        <v>1208.5</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1005.35</v>
+        <v>990.5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>995.1</v>
+        <v>964.8</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>999</v>
+        <v>973.4</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1000.75</v>
+        <v>972.9</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>997.1</v>
+        <v>986.3</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>170.35</v>
+        <v>169.6</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>167.3</v>
+        <v>166.13</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>167.65</v>
+        <v>167.85</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>167.88</v>
+        <v>167.98</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1063</v>
+        <v>691</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>168.14</v>
+        <v>168.99</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4395.9</v>
+        <v>4303.15</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4320</v>
+        <v>4261.15</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4327</v>
+        <v>4292.3</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4330.5</v>
+        <v>4294.3</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4385</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3899.5</v>
+        <v>3842.9</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3800</v>
+        <v>3782.4</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3853.15</v>
+        <v>3814</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3851.75</v>
+        <v>3806.55</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3800.65</v>
+        <v>3839.45</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1481.7</v>
+        <v>1434.35</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1457</v>
+        <v>1412.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>3205</v>
+        <v>3136</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1476.3</v>
+        <v>1415.15</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1461.8</v>
+        <v>1423.8</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1472.9</v>
+        <v>1505.25</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1418.05</v>
+        <v>1486.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1452.95</v>
+        <v>1499.45</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1450.7</v>
+        <v>1499.25</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1469.8</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>53645</v>
+        <v>51818.25</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>53252</v>
+        <v>51219.1</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>53390</v>
+        <v>51391.05</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>53381.2</v>
+        <v>51386.4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>53635</v>
+        <v>51630.15</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>113.15</v>
+        <v>105.26</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>110.8</v>
+        <v>104.06</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>111.21</v>
+        <v>104.35</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>111.34</v>
+        <v>104.45</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>565</v>
+        <v>389</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>112.7</v>
+        <v>104.62</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>922</v>
+        <v>864.25</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>900.1</v>
+        <v>846</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>918.95</v>
+        <v>851.1</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>919.5</v>
+        <v>851.35</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>910.1</v>
+        <v>858.8</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>770</v>
+        <v>752.05</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>750.4</v>
+        <v>740.05</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>765.35</v>
+        <v>749.8</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>766.05</v>
+        <v>749.35</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>758</v>
+        <v>741.15</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1289.2</v>
+        <v>1242.75</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1277.25</v>
+        <v>1227.3</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1286.65</v>
+        <v>1228.7</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1284.9</v>
+        <v>1229</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1288.6</v>
+        <v>1240.35</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1049</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1025.5</v>
+        <v>999.45</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>1044</v>
+        <v>1009.2</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1044.5</v>
+        <v>1008.95</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1045.35</v>
+        <v>1000.3</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>26059.95</v>
+        <v>25150</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>25890</v>
+        <v>25001.1</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>25976.4</v>
+        <v>25048</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>25969.25</v>
+        <v>25049.55</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>26049.2</v>
+        <v>25089</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2990.35</v>
+        <v>2782.15</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2950.65</v>
+        <v>2750.9</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2953.5</v>
+        <v>2758.55</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2954.4</v>
+        <v>2755.35</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2990.1</v>
+        <v>2767.35</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>804.5</v>
+        <v>806.7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>796.85</v>
+        <v>795.8</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>801.9</v>
+        <v>802.4</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>803.5</v>
+        <v>803.35</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>799.5</v>
+        <v>800.75</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1214.8</v>
+        <v>1122.85</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1200.35</v>
+        <v>1105.15</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1205.9</v>
+        <v>1118</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1206.4</v>
+        <v>1118.1</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1208.5</v>
+        <v>1117.7</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>990.5</v>
+        <v>941.45</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>964.8</v>
+        <v>931.75</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>973.4</v>
+        <v>934.45</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>972.9</v>
+        <v>933.4</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>986.3</v>
+        <v>934.7</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>169.6</v>
+        <v>164.7</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>166.13</v>
+        <v>160.88</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>167.85</v>
+        <v>161.56</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>167.98</v>
+        <v>161.36</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>168.99</v>
+        <v>161.46</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4303.15</v>
+        <v>4252.7</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4261.15</v>
+        <v>4122.9</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4292.3</v>
+        <v>4157</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4294.3</v>
+        <v>4159.55</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4299</v>
+        <v>4208.55</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3842.9</v>
+        <v>3504.9</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3782.4</v>
+        <v>3468.6</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3814</v>
+        <v>3484.65</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3806.55</v>
+        <v>3489.6</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3839.45</v>
+        <v>3491.55</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1434.35</v>
+        <v>1428.75</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1412.1</v>
+        <v>1409.55</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>3136</v>
+        <v>3119.15</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1415.15</v>
+        <v>1422.4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1423.8</v>
+        <v>1425.2</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1505.25</v>
+        <v>1501.8</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1486.4</v>
+        <v>1473.55</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1499.45</v>
+        <v>1484.85</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1499.25</v>
+        <v>1483.85</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1493</v>
+        <v>1495.7</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>51818.25</v>
+        <v>52241</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>51219.1</v>
+        <v>51910.2</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>51391.05</v>
+        <v>52145</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>51386.4</v>
+        <v>52106.85</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>51630.15</v>
+        <v>52180.05</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>105.26</v>
+        <v>105.68</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>104.06</v>
+        <v>104.16</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>104.35</v>
+        <v>104.66</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>104.45</v>
+        <v>104.68</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>389</v>
+        <v>236</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>104.62</v>
+        <v>105.42</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>864.25</v>
+        <v>879.95</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>846</v>
+        <v>860.9</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>851.1</v>
+        <v>878.95</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>851.35</v>
+        <v>878.3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>858.8</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>752.05</v>
+        <v>740.3</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>740.05</v>
+        <v>722</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>749.8</v>
+        <v>727.35</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>749.35</v>
+        <v>728.05</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>741.15</v>
+        <v>739.75</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1242.75</v>
+        <v>1260</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1227.3</v>
+        <v>1243</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1228.7</v>
+        <v>1257.4</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1229</v>
+        <v>1257.55</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1240.35</v>
+        <v>1247.95</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1017</v>
+        <v>992.4</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>999.45</v>
+        <v>969.5</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>1009.2</v>
+        <v>972.9</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1008.95</v>
+        <v>973</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1000.3</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>25150</v>
+        <v>25284.4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>25001.1</v>
+        <v>25064.4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>25048</v>
+        <v>25130.2</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>25049.55</v>
+        <v>25118.35</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>25089</v>
+        <v>25282</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2782.15</v>
+        <v>2752</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2750.9</v>
+        <v>2695.1</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2758.55</v>
+        <v>2700.5</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2755.35</v>
+        <v>2701</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2767.35</v>
+        <v>2746.85</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>806.7</v>
+        <v>811.25</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>795.8</v>
+        <v>804.2</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>802.4</v>
+        <v>807.65</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>803.35</v>
+        <v>807.05</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>800.75</v>
+        <v>810.5</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1122.85</v>
+        <v>1119.15</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1105.15</v>
+        <v>1109.5</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1118</v>
+        <v>1117.65</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1118.1</v>
+        <v>1117.55</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1117.7</v>
+        <v>1118.35</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>941.45</v>
+        <v>933.95</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>931.75</v>
+        <v>914.7</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>934.45</v>
+        <v>920.55</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>933.4</v>
+        <v>919.85</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>934.7</v>
+        <v>931.25</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>164.7</v>
+        <v>158.2</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>160.88</v>
+        <v>155.27</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>161.56</v>
+        <v>156.04</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>161.36</v>
+        <v>155.94</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>713</v>
+        <v>636</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>161.46</v>
+        <v>158.1</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4252.7</v>
+        <v>4176.85</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4122.9</v>
+        <v>4104</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4157</v>
+        <v>4123.3</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4159.55</v>
+        <v>4122.6</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4208.55</v>
+        <v>4173.3</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3504.9</v>
+        <v>3528</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3468.6</v>
+        <v>3486.9</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3484.65</v>
+        <v>3513.05</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3489.6</v>
+        <v>3514.2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3491.55</v>
+        <v>3522.5</v>
       </c>
     </row>
   </sheetData>

--- a/fo high low.xlsx
+++ b/fo high low.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1428.75</v>
+        <v>1416.95</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1409.55</v>
+        <v>1381.25</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>3119.15</v>
+        <v>3004.7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1422.4</v>
+        <v>1410</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1425.2</v>
+        <v>1386.35</v>
       </c>
     </row>
     <row r="3">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1501.8</v>
+        <v>1488.1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1473.55</v>
+        <v>1455.35</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1484.85</v>
+        <v>1478.4</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1483.85</v>
+        <v>1479.25</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1495.7</v>
+        <v>1459.65</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>52241</v>
+        <v>52420</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>51910.2</v>
+        <v>51222.35</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>52145</v>
+        <v>52361.4</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>52106.85</v>
+        <v>52310.4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>52180.05</v>
+        <v>51250.05</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>105.68</v>
+        <v>105.5</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>104.16</v>
+        <v>101.01</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>104.66</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>104.68</v>
+        <v>105.12</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>236</v>
+        <v>589</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>105.42</v>
+        <v>101.09</v>
       </c>
     </row>
     <row r="6">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>879.95</v>
+        <v>882.5</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>860.9</v>
+        <v>851.1</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>878.95</v>
+        <v>877</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>878.3</v>
+        <v>878.4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>866</v>
+        <v>853.05</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>740.3</v>
+        <v>759.5</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>722</v>
+        <v>727.45</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>727.35</v>
+        <v>756.65</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>728.05</v>
+        <v>756.9</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>739.75</v>
+        <v>727.5</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1260</v>
+        <v>1269.3</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1243</v>
+        <v>1229.55</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1257.4</v>
+        <v>1268.95</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1257.55</v>
+        <v>1266.85</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1247.95</v>
+        <v>1231.95</v>
       </c>
     </row>
     <row r="9">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>992.4</v>
+        <v>975</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>969.5</v>
+        <v>925.4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>972.9</v>
+        <v>968.75</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>973</v>
+        <v>968.35</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>987</v>
+        <v>925.9</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>25284.4</v>
+        <v>24996.75</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>25064.4</v>
+        <v>24640.2</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>25130.2</v>
+        <v>24965.55</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>25118.35</v>
+        <v>24949.15</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>25282</v>
+        <v>24656.5</v>
       </c>
     </row>
     <row r="11">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2752</v>
+        <v>2744.95</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2695.1</v>
+        <v>2692</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2700.5</v>
+        <v>2727</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2701</v>
+        <v>2728.6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2746.85</v>
+        <v>2693.2</v>
       </c>
     </row>
     <row r="12">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>811.25</v>
+        <v>826.7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>804.2</v>
+        <v>805.05</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>807.65</v>
+        <v>823.4</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>807.05</v>
+        <v>824.3</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>810.5</v>
+        <v>806.7</v>
       </c>
     </row>
     <row r="13">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1119.15</v>
+        <v>1102.4</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1109.5</v>
+        <v>1076.7</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1117.65</v>
+        <v>1097.45</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1117.55</v>
+        <v>1098.3</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1118.35</v>
+        <v>1080.6</v>
       </c>
     </row>
     <row r="14">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>933.95</v>
+        <v>920.5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>914.7</v>
+        <v>891.6</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>920.55</v>
+        <v>913.8</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>919.85</v>
+        <v>913.55</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>931.25</v>
+        <v>892.65</v>
       </c>
     </row>
     <row r="15">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>158.2</v>
+        <v>156.9</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>155.27</v>
+        <v>151.62</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>156.04</v>
+        <v>156.01</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>155.94</v>
+        <v>156.09</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>158.1</v>
+        <v>151.7</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4176.85</v>
+        <v>4152.95</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4104</v>
+        <v>4111.65</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4123.3</v>
+        <v>4140</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4122.6</v>
+        <v>4136.3</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4173.3</v>
+        <v>4129.05</v>
       </c>
     </row>
     <row r="17">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3528</v>
+        <v>3429.65</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3486.9</v>
+        <v>3301.75</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3513.05</v>
+        <v>3408.7</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>3514.2</v>
+        <v>3397.5</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3522.5</v>
+        <v>3340.55</v>
       </c>
     </row>
   </sheetData>
